--- a/static/Models/Regression/Equation/Infrastructure.xlsx
+++ b/static/Models/Regression/Equation/Infrastructure.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-23</t>
+    <t>2024-02-26</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>0.02356166765093803</v>
+        <v>0.02069211937487125</v>
       </c>
       <c r="C2">
-        <v>0.01669747941195965</v>
+        <v>0.02149414643645287</v>
       </c>
       <c r="D2">
-        <v>-0.1078632399439812</v>
+        <v>-0.1088764518499374</v>
       </c>
       <c r="E2">
-        <v>0.06236585974693298</v>
+        <v>0.06444466114044189</v>
       </c>
       <c r="F2">
-        <v>0.006781873758882284</v>
+        <v>0.003865711158141494</v>
       </c>
       <c r="G2">
-        <v>0.1368863135576248</v>
+        <v>0.1364234238862991</v>
       </c>
       <c r="H2">
-        <v>0.006338814273476601</v>
+        <v>0.006105584558099508</v>
       </c>
       <c r="I2">
-        <v>-0.01185848563909531</v>
+        <v>-0.01287484634667635</v>
       </c>
       <c r="J2">
-        <v>0.1101372316479683</v>
+        <v>0.1083402261137962</v>
       </c>
       <c r="K2">
-        <v>0.007374321576207876</v>
+        <v>0.005646680481731892</v>
       </c>
       <c r="L2">
-        <v>-0.0002744882076513022</v>
+        <v>-0.0002510212652850896</v>
       </c>
       <c r="M2">
-        <v>0.006537683308124542</v>
+        <v>0.00904176477342844</v>
       </c>
       <c r="N2">
-        <v>-0.002382231876254082</v>
+        <v>-0.003851055400446057</v>
       </c>
       <c r="O2">
-        <v>0.009386223740875721</v>
+        <v>0.01101433485746384</v>
       </c>
       <c r="P2">
-        <v>0.102937176823616</v>
+        <v>0.09872718155384064</v>
       </c>
       <c r="Q2">
-        <v>-0.08110915869474411</v>
+        <v>-0.08127234876155853</v>
       </c>
       <c r="R2">
-        <v>0.007873150520026684</v>
+        <v>0.00774322496727109</v>
       </c>
       <c r="S2">
-        <v>-0.0178089551627636</v>
+        <v>-0.01523701008409262</v>
       </c>
       <c r="T2">
-        <v>0.04069104790687561</v>
+        <v>0.04073132574558258</v>
       </c>
       <c r="U2">
-        <v>0.01469735894352198</v>
+        <v>0.01343910396099091</v>
       </c>
       <c r="V2">
-        <v>0.001452903263270855</v>
+        <v>0.001337339170277119</v>
       </c>
       <c r="W2">
-        <v>0.03899779915809631</v>
+        <v>0.0377654992043972</v>
       </c>
       <c r="X2">
-        <v>0.01036577206104994</v>
+        <v>0.006151062436401844</v>
       </c>
       <c r="Y2">
-        <v>0.05656387284398079</v>
+        <v>0.05876277759671211</v>
       </c>
       <c r="Z2">
-        <v>-0.04787628725171089</v>
+        <v>-0.04528847336769104</v>
       </c>
       <c r="AA2">
-        <v>0.002679144963622093</v>
+        <v>0.001235313015058637</v>
       </c>
       <c r="AB2">
-        <v>-0.03392207249999046</v>
+        <v>-0.03473043814301491</v>
       </c>
       <c r="AC2">
-        <v>0.07419358193874359</v>
+        <v>0.07098454982042313</v>
       </c>
       <c r="AD2">
-        <v>0.02012328989803791</v>
+        <v>0.01986350864171982</v>
       </c>
       <c r="AE2">
-        <v>0.02721008658409119</v>
+        <v>0.02715152315795422</v>
       </c>
       <c r="AF2">
-        <v>0.003314637113362551</v>
+        <v>0.004412169102579355</v>
       </c>
       <c r="AG2">
-        <v>-0.05170473828911781</v>
+        <v>-0.05361535400152206</v>
       </c>
       <c r="AH2">
-        <v>0.06821715831756592</v>
+        <v>0.06689013540744781</v>
       </c>
       <c r="AI2">
-        <v>-0.01661431789398193</v>
+        <v>-0.01650917157530785</v>
       </c>
       <c r="AJ2">
-        <v>-0.004474535584449768</v>
+        <v>-0.001382386079058051</v>
       </c>
       <c r="AK2">
-        <v>0.0008950582123361528</v>
+        <v>0.001403363537974656</v>
       </c>
       <c r="AL2">
-        <v>0.01010317821055651</v>
+        <v>0.009141712449491024</v>
       </c>
       <c r="AM2">
-        <v>0.04746610671281815</v>
+        <v>0.04659720882773399</v>
       </c>
       <c r="AN2">
-        <v>-0.04697658866643906</v>
+        <v>-0.04870928078889847</v>
       </c>
       <c r="AO2">
-        <v>-0.0475122258067131</v>
+        <v>-0.04849283397197723</v>
       </c>
       <c r="AP2">
-        <v>0.06194861233234406</v>
+        <v>0.06083827838301659</v>
       </c>
       <c r="AQ2">
-        <v>0.005868815816938877</v>
+        <v>0.004601722117513418</v>
       </c>
       <c r="AR2">
-        <v>0.08694117516279221</v>
+        <v>0.08610618859529495</v>
       </c>
       <c r="AS2">
-        <v>0.0550423376262188</v>
+        <v>0.05340186879038811</v>
       </c>
       <c r="AT2">
-        <v>0.009077864699065685</v>
+        <v>0.006767577491700649</v>
       </c>
       <c r="AU2">
-        <v>-0.03829716518521309</v>
+        <v>-0.03740189597010612</v>
       </c>
       <c r="AV2">
-        <v>-0.02460446208715439</v>
+        <v>-0.02818275615572929</v>
       </c>
       <c r="AW2">
-        <v>-0.01736383698880672</v>
+        <v>-0.01639852672815323</v>
       </c>
       <c r="AX2">
-        <v>-0.004836459644138813</v>
+        <v>-0.006524836178869009</v>
       </c>
       <c r="AY2">
-        <v>-0.02870615385472775</v>
+        <v>-0.03067458420991898</v>
       </c>
       <c r="AZ2">
-        <v>-0.02656988427042961</v>
+        <v>-0.02798713184893131</v>
       </c>
       <c r="BA2">
-        <v>0.0527995377779007</v>
+        <v>0.0519394688308239</v>
       </c>
       <c r="BB2">
-        <v>-0.0424279011785984</v>
+        <v>-0.0416499637067318</v>
       </c>
       <c r="BC2">
-        <v>0.01235616486519575</v>
+        <v>0.01263628248125315</v>
       </c>
       <c r="BD2">
-        <v>0.05920713394880295</v>
+        <v>0.05894159898161888</v>
       </c>
       <c r="BE2">
-        <v>0.004421833902597427</v>
+        <v>0.001617922331206501</v>
       </c>
       <c r="BF2">
-        <v>0.004346349742263556</v>
+        <v>0.006770914420485497</v>
       </c>
       <c r="BG2">
-        <v>-0.02837196178734303</v>
+        <v>-0.02887460775673389</v>
       </c>
       <c r="BH2">
-        <v>-0.00170010095462203</v>
+        <v>-0.003609353210777044</v>
       </c>
       <c r="BI2">
-        <v>0.02969876118004322</v>
+        <v>0.02978496253490448</v>
       </c>
       <c r="BJ2">
-        <v>0.04731932282447815</v>
+        <v>0.04598629102110863</v>
       </c>
       <c r="BK2">
-        <v>-0.004308559931814671</v>
+        <v>0.001393973012454808</v>
       </c>
       <c r="BL2">
-        <v>0.01622088253498077</v>
+        <v>0.01373077556490898</v>
       </c>
       <c r="BM2">
-        <v>0.01871558465063572</v>
+        <v>0.01777669228613377</v>
       </c>
       <c r="BN2">
-        <v>-0.07375237345695496</v>
+        <v>-0.08080675452947617</v>
       </c>
       <c r="BO2">
-        <v>-0.01784452050924301</v>
+        <v>-0.01838044263422489</v>
       </c>
       <c r="BP2">
-        <v>0.001268611755222082</v>
+        <v>0.002699908800423145</v>
       </c>
       <c r="BQ2">
-        <v>0.04332203418016434</v>
+        <v>0.04506829008460045</v>
       </c>
       <c r="BR2">
-        <v>0.002407990861684084</v>
+        <v>0.001722860732115805</v>
       </c>
       <c r="BS2">
-        <v>-0.003383990144357085</v>
+        <v>-0.002898581558838487</v>
       </c>
       <c r="BT2">
-        <v>-0.0009730382589623332</v>
+        <v>-0.001845618826337159</v>
       </c>
       <c r="BU2">
-        <v>-0.05105853453278542</v>
+        <v>-0.05117091163992882</v>
       </c>
       <c r="BV2">
-        <v>-0.06066931784152985</v>
+        <v>-0.06110632047057152</v>
       </c>
       <c r="BW2">
-        <v>0.009201603010296822</v>
+        <v>0.00666351430118084</v>
       </c>
       <c r="BX2">
-        <v>0.06559743732213974</v>
+        <v>0.06393320113420486</v>
       </c>
       <c r="BY2">
-        <v>0.001930190250277519</v>
+        <v>0.00218043546192348</v>
       </c>
       <c r="BZ2">
-        <v>0.04216060787439346</v>
+        <v>0.04028729349374771</v>
       </c>
       <c r="CA2">
-        <v>-0.007764318957924843</v>
+        <v>-0.006432416848838329</v>
       </c>
       <c r="CB2">
-        <v>-0.05248955264687538</v>
+        <v>-0.05484266951680183</v>
       </c>
       <c r="CC2">
-        <v>-0.002239756751805544</v>
+        <v>-0.003267018822953105</v>
       </c>
       <c r="CD2">
-        <v>0.004466128069907427</v>
+        <v>0.003917196299880743</v>
       </c>
       <c r="CE2">
-        <v>-0.01705866120755672</v>
+        <v>-0.01919263228774071</v>
       </c>
       <c r="CF2">
-        <v>0.007945014163851738</v>
+        <v>0.007328506093472242</v>
       </c>
       <c r="CG2">
-        <v>-0.09551207721233368</v>
+        <v>-0.09690298140048981</v>
       </c>
       <c r="CH2">
-        <v>-0.004554165061563253</v>
+        <v>-0.005360495299100876</v>
       </c>
       <c r="CI2">
-        <v>0.0005123800365254283</v>
+        <v>0.0001427151000825688</v>
       </c>
       <c r="CJ2">
-        <v>-0.01804336532950401</v>
+        <v>-0.01559354923665524</v>
       </c>
       <c r="CK2">
-        <v>-0.03066455014050007</v>
+        <v>-0.0316178984940052</v>
       </c>
       <c r="CL2">
-        <v>-0.00108085828833282</v>
+        <v>-0.002016779966652393</v>
       </c>
       <c r="CM2">
-        <v>0.05803853273391724</v>
+        <v>0.05751154571771622</v>
       </c>
       <c r="CN2">
-        <v>0.01150308270007372</v>
+        <v>0.009713779203593731</v>
       </c>
       <c r="CO2">
-        <v>-0.001296121859923005</v>
+        <v>-0.001830643508583307</v>
       </c>
       <c r="CP2">
-        <v>0.05631216242909431</v>
+        <v>0.05675151199102402</v>
       </c>
       <c r="CQ2">
-        <v>0.008603387512266636</v>
+        <v>0.009102931246161461</v>
       </c>
       <c r="CR2">
-        <v>6.761322583770379E-05</v>
+        <v>-0.002734131179749966</v>
       </c>
       <c r="CS2">
-        <v>0.002734055975452065</v>
+        <v>0.002583177527412772</v>
       </c>
       <c r="CT2">
-        <v>0.004827482625842094</v>
+        <v>0.003832897869870067</v>
       </c>
       <c r="CU2">
-        <v>0.008100221864879131</v>
+        <v>0.01233665179461241</v>
       </c>
       <c r="CV2">
-        <v>0.005801433697342873</v>
+        <v>0.002037325873970985</v>
       </c>
       <c r="CW2">
-        <v>0.006935554556548595</v>
+        <v>0.007074072491377592</v>
       </c>
       <c r="CX2">
-        <v>0.001464834320358932</v>
+        <v>0.005321964155882597</v>
       </c>
       <c r="CY2">
-        <v>0.02394154109060764</v>
+        <v>0.02479940466582775</v>
       </c>
       <c r="CZ2">
-        <v>0.00163681898266077</v>
+        <v>0.0003071137762162834</v>
       </c>
       <c r="DA2">
-        <v>-0.05358327180147171</v>
+        <v>-0.05377509444952011</v>
       </c>
       <c r="DB2">
-        <v>-0.05852746590971947</v>
+        <v>-0.0612640455365181</v>
       </c>
       <c r="DC2">
-        <v>0.003041782649233937</v>
+        <v>-1.199341568280943E-05</v>
       </c>
       <c r="DD2">
-        <v>-0.04243675991892815</v>
+        <v>-0.04383830353617668</v>
       </c>
       <c r="DE2">
-        <v>0.00171493727248162</v>
+        <v>0.001732223085127771</v>
       </c>
       <c r="DF2">
-        <v>0.06801977008581161</v>
+        <v>0.06617124378681183</v>
       </c>
       <c r="DG2">
-        <v>0.0001308281207457185</v>
+        <v>0.0002784945827443153</v>
       </c>
       <c r="DH2">
-        <v>0.07358642667531967</v>
+        <v>0.07453977316617966</v>
       </c>
       <c r="DI2">
-        <v>-0.007186238188296556</v>
+        <v>-0.003308624029159546</v>
       </c>
       <c r="DJ2">
-        <v>0.06056075170636177</v>
+        <v>0.06067542359232903</v>
       </c>
       <c r="DK2">
-        <v>0.01932309381663799</v>
+        <v>0.01999431848526001</v>
       </c>
       <c r="DL2">
-        <v>-0.0568692535161972</v>
+        <v>-0.05879610404372215</v>
       </c>
       <c r="DM2">
-        <v>-0.04141566902399063</v>
+        <v>-0.0415119081735611</v>
       </c>
       <c r="DN2">
-        <v>0.05190645530819893</v>
+        <v>0.05137300491333008</v>
       </c>
       <c r="DO2">
-        <v>0.05697682499885559</v>
+        <v>0.05755707994103432</v>
       </c>
       <c r="DP2">
-        <v>-0.031487837433815</v>
+        <v>-0.03440718352794647</v>
       </c>
       <c r="DQ2">
-        <v>0.003253936069086194</v>
+        <v>0.002786821685731411</v>
       </c>
       <c r="DR2">
-        <v>0.005130650941282511</v>
+        <v>0.004669736605137587</v>
       </c>
       <c r="DS2">
-        <v>-0.07034578174352646</v>
+        <v>-0.06701546162366867</v>
       </c>
       <c r="DT2">
-        <v>0.01474244706332684</v>
+        <v>0.01288091670721769</v>
       </c>
       <c r="DU2">
-        <v>0.008510333485901356</v>
+        <v>0.006591760087758303</v>
       </c>
       <c r="DV2">
-        <v>-0.004008769057691097</v>
+        <v>-0.004122303333133459</v>
       </c>
       <c r="DW2">
-        <v>0.002407810883596539</v>
+        <v>0.001372118364088237</v>
       </c>
       <c r="DX2">
-        <v>-0.06166592612862587</v>
+        <v>-0.06219130009412766</v>
       </c>
       <c r="DY2">
-        <v>0.03539373725652695</v>
+        <v>0.03721510991454124</v>
       </c>
       <c r="DZ2">
-        <v>0.000746186007745564</v>
+        <v>0.001527237123809755</v>
       </c>
       <c r="EA2">
-        <v>0.009582848288118839</v>
+        <v>0.01049996260553598</v>
       </c>
       <c r="EB2">
-        <v>-0.07123594731092453</v>
+        <v>-0.07162365317344666</v>
       </c>
       <c r="EC2">
-        <v>0.006202415097504854</v>
+        <v>0.008469831198453903</v>
       </c>
       <c r="ED2">
-        <v>-0.01512516010552645</v>
+        <v>-0.01515581086277962</v>
       </c>
       <c r="EE2">
-        <v>0.01169106364250183</v>
+        <v>0.01171296648681164</v>
       </c>
       <c r="EF2">
-        <v>-0.05129124224185944</v>
+        <v>-0.0529472716152668</v>
       </c>
       <c r="EG2">
-        <v>0.07459347695112228</v>
+        <v>0.07427431643009186</v>
       </c>
       <c r="EH2">
-        <v>-0.06578065454959869</v>
+        <v>-0.06681745499372482</v>
       </c>
       <c r="EI2">
-        <v>-0.09349852800369263</v>
+        <v>-0.0952082946896553</v>
       </c>
       <c r="EJ2">
-        <v>-0.03973183780908585</v>
+        <v>-0.03999354690313339</v>
       </c>
       <c r="EK2">
-        <v>0.00167058571241796</v>
+        <v>0.0007776637794449925</v>
       </c>
       <c r="EL2">
-        <v>-0.006702521815896034</v>
+        <v>-0.006779843010008335</v>
       </c>
       <c r="EM2">
-        <v>-0.04200301691889763</v>
+        <v>-0.03900319337844849</v>
       </c>
       <c r="EN2">
-        <v>-0.05567322671413422</v>
+        <v>-0.0586889423429966</v>
       </c>
       <c r="EO2">
-        <v>0.04801629111170769</v>
+        <v>0.04633964970707893</v>
       </c>
       <c r="EP2">
-        <v>0.09802088141441345</v>
+        <v>0.09768189489841461</v>
       </c>
       <c r="EQ2">
-        <v>0.1316908150911331</v>
+        <v>0.1312461942434311</v>
       </c>
       <c r="ER2">
-        <v>3.915389970643446E-05</v>
+        <v>0.0005941271665506065</v>
       </c>
       <c r="ES2">
-        <v>-0.002655414864420891</v>
+        <v>-0.004204579629004002</v>
       </c>
       <c r="ET2">
-        <v>-0.04748714342713356</v>
+        <v>-0.05202358588576317</v>
       </c>
       <c r="EU2">
-        <v>-0.006023493595421314</v>
+        <v>-0.01174631156027317</v>
       </c>
       <c r="EV2">
-        <v>-0.01434643380343914</v>
+        <v>-0.0164914820343256</v>
       </c>
       <c r="EW2">
-        <v>-0.002622374799102545</v>
+        <v>-0.001823726575821638</v>
       </c>
       <c r="EX2">
-        <v>-0.06928541511297226</v>
+        <v>-0.07006116956472397</v>
       </c>
       <c r="EY2">
-        <v>0.01505812257528305</v>
+        <v>0.01566343195736408</v>
       </c>
       <c r="EZ2">
-        <v>-0.04842597246170044</v>
+        <v>-0.04708586260676384</v>
       </c>
       <c r="FA2">
-        <v>0.008313638158142567</v>
+        <v>0.008214317262172699</v>
       </c>
       <c r="FB2">
-        <v>0.005691374652087688</v>
+        <v>0.005392075050622225</v>
       </c>
       <c r="FC2">
-        <v>0.02640005573630333</v>
+        <v>0.02693005837500095</v>
       </c>
       <c r="FD2">
-        <v>-0.004954454489052296</v>
+        <v>-0.006281810346990824</v>
       </c>
       <c r="FE2">
-        <v>0.02998487651348114</v>
+        <v>0.03004483133554459</v>
       </c>
       <c r="FF2">
-        <v>-0.1069387346506119</v>
+        <v>-0.1083019748330116</v>
       </c>
       <c r="FG2">
-        <v>-0.05931675434112549</v>
+        <v>-0.06013932079076767</v>
       </c>
       <c r="FH2">
-        <v>0.003499358892440796</v>
+        <v>0.003717505605891347</v>
       </c>
       <c r="FI2">
-        <v>0.01938569918274879</v>
+        <v>0.0145095931366086</v>
       </c>
       <c r="FJ2">
-        <v>0.02685557305812836</v>
+        <v>0.02286213077604771</v>
       </c>
       <c r="FK2">
-        <v>0.0218936912715435</v>
+        <v>0.02044028602540493</v>
       </c>
       <c r="FL2">
-        <v>0.03899312019348145</v>
+        <v>0.04209255799651146</v>
       </c>
       <c r="FM2">
-        <v>0.04796923696994781</v>
+        <v>0.05093789473176003</v>
       </c>
       <c r="FN2">
-        <v>0.04212412610650063</v>
+        <v>0.03844611346721649</v>
       </c>
       <c r="FO2">
-        <v>0.004730186425149441</v>
+        <v>0.003037413349375129</v>
       </c>
       <c r="FP2">
-        <v>0.0009138889727182686</v>
+        <v>0.004784482065588236</v>
       </c>
       <c r="FQ2">
-        <v>0.003904552198946476</v>
+        <v>0.003834361908957362</v>
       </c>
       <c r="FR2">
-        <v>-0.00950399786233902</v>
+        <v>-0.009946934878826141</v>
       </c>
       <c r="FS2">
-        <v>-0.001688872696831822</v>
+        <v>-0.002677775453776121</v>
       </c>
       <c r="FT2">
-        <v>0.003721888875588775</v>
+        <v>0.00288377539254725</v>
       </c>
       <c r="FU2">
-        <v>-0.06093113124370575</v>
+        <v>-0.06124228239059448</v>
       </c>
       <c r="FV2">
-        <v>0.06785149127244949</v>
+        <v>0.06710665673017502</v>
       </c>
       <c r="FW2">
-        <v>0.03654763475060463</v>
+        <v>0.03670290857553482</v>
       </c>
       <c r="FX2">
-        <v>0.003194942837581038</v>
+        <v>0.006262511946260929</v>
       </c>
       <c r="FY2">
-        <v>-0.005573772825300694</v>
+        <v>0.0003001508302986622</v>
       </c>
       <c r="FZ2">
-        <v>0.001800709287635982</v>
+        <v>0.001466841087676585</v>
       </c>
       <c r="GA2">
-        <v>0.02566501684486866</v>
+        <v>0.02253423817455769</v>
       </c>
       <c r="GB2">
-        <v>0.008439876139163971</v>
+        <v>0.008988603018224239</v>
       </c>
       <c r="GC2">
-        <v>-0.02386513538658619</v>
+        <v>-0.0223013311624527</v>
       </c>
       <c r="GD2">
-        <v>0.05771183222532272</v>
+        <v>0.05897608026862144</v>
       </c>
       <c r="GE2">
-        <v>0.004830758087337017</v>
+        <v>0.004748395644128323</v>
       </c>
       <c r="GF2">
-        <v>-0.004601688124239445</v>
+        <v>-0.004953444004058838</v>
       </c>
       <c r="GG2">
-        <v>0.01327531412243843</v>
+        <v>0.01221269182860851</v>
       </c>
       <c r="GH2">
-        <v>0.005858676973730326</v>
+        <v>0.006732731591910124</v>
       </c>
       <c r="GI2">
-        <v>0.008984560146927834</v>
+        <v>0.009608231484889984</v>
       </c>
       <c r="GJ2">
-        <v>-0.006395174656063318</v>
+        <v>-0.006658696103841066</v>
       </c>
       <c r="GK2">
-        <v>-0.04672982543706894</v>
+        <v>-0.04949522018432617</v>
       </c>
       <c r="GL2">
-        <v>-0.004897285718470812</v>
+        <v>-0.005224126856774092</v>
       </c>
       <c r="GM2">
-        <v>-0.05964888632297516</v>
+        <v>-0.06054568290710449</v>
       </c>
       <c r="GN2">
-        <v>0.04912026971578598</v>
+        <v>0.04841681942343712</v>
       </c>
       <c r="GO2">
-        <v>-0.02169949002563953</v>
+        <v>-0.02500393427908421</v>
       </c>
       <c r="GP2">
-        <v>0.04681046679615974</v>
+        <v>0.04554838687181473</v>
       </c>
       <c r="GQ2">
-        <v>0.004362516105175018</v>
+        <v>0.002317271661013365</v>
       </c>
       <c r="GR2">
-        <v>0.00845849234610796</v>
+        <v>0.007486420683562756</v>
       </c>
       <c r="GS2">
-        <v>-0.00512555381283164</v>
+        <v>-0.006465076003223658</v>
       </c>
       <c r="GT2">
-        <v>-0.005067820660769939</v>
+        <v>-0.008627294562757015</v>
       </c>
       <c r="GU2">
-        <v>-0.003172898897901177</v>
+        <v>-0.002437085844576359</v>
       </c>
       <c r="GV2">
-        <v>-0.005698181223124266</v>
+        <v>-0.005963081028312445</v>
       </c>
       <c r="GW2">
-        <v>0.1240236088633537</v>
+        <v>0.1241711601614952</v>
       </c>
       <c r="GX2">
-        <v>-0.008619744330644608</v>
+        <v>-0.009083086624741554</v>
       </c>
       <c r="GY2">
-        <v>-0.006739399861544371</v>
+        <v>-0.006983345374464989</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Infrastructure.xlsx
+++ b/static/Models/Regression/Equation/Infrastructure.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-26</t>
+    <t>2024-02-27</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>0.02069211937487125</v>
+        <v>0.02946851961314678</v>
       </c>
       <c r="C2">
-        <v>0.02149414643645287</v>
+        <v>0.02110550366342068</v>
       </c>
       <c r="D2">
-        <v>-0.1088764518499374</v>
+        <v>-0.1063166260719299</v>
       </c>
       <c r="E2">
-        <v>0.06444466114044189</v>
+        <v>0.06650622934103012</v>
       </c>
       <c r="F2">
-        <v>0.003865711158141494</v>
+        <v>0.00442738551646471</v>
       </c>
       <c r="G2">
-        <v>0.1364234238862991</v>
+        <v>0.137610986828804</v>
       </c>
       <c r="H2">
-        <v>0.006105584558099508</v>
+        <v>0.005153673235327005</v>
       </c>
       <c r="I2">
-        <v>-0.01287484634667635</v>
+        <v>-0.01239355839788914</v>
       </c>
       <c r="J2">
-        <v>0.1083402261137962</v>
+        <v>0.11100222915411</v>
       </c>
       <c r="K2">
-        <v>0.005646680481731892</v>
+        <v>-0.0014133604709059</v>
       </c>
       <c r="L2">
-        <v>-0.0002510212652850896</v>
+        <v>-0.002988289808854461</v>
       </c>
       <c r="M2">
-        <v>0.00904176477342844</v>
+        <v>0.00323304464109242</v>
       </c>
       <c r="N2">
-        <v>-0.003851055400446057</v>
+        <v>-0.006262241862714291</v>
       </c>
       <c r="O2">
-        <v>0.01101433485746384</v>
+        <v>0.008181246928870678</v>
       </c>
       <c r="P2">
-        <v>0.09872718155384064</v>
+        <v>0.09867041558027267</v>
       </c>
       <c r="Q2">
-        <v>-0.08127234876155853</v>
+        <v>-0.08819577097892761</v>
       </c>
       <c r="R2">
-        <v>0.00774322496727109</v>
+        <v>0.01367334462702274</v>
       </c>
       <c r="S2">
-        <v>-0.01523701008409262</v>
+        <v>-0.01404271088540554</v>
       </c>
       <c r="T2">
-        <v>0.04073132574558258</v>
+        <v>0.03945020958781242</v>
       </c>
       <c r="U2">
-        <v>0.01343910396099091</v>
+        <v>0.01893632486462593</v>
       </c>
       <c r="V2">
-        <v>0.001337339170277119</v>
+        <v>7.328904757741839E-05</v>
       </c>
       <c r="W2">
-        <v>0.0377654992043972</v>
+        <v>0.03892350941896439</v>
       </c>
       <c r="X2">
-        <v>0.006151062436401844</v>
+        <v>0.005382100585848093</v>
       </c>
       <c r="Y2">
-        <v>0.05876277759671211</v>
+        <v>0.06069985777139664</v>
       </c>
       <c r="Z2">
-        <v>-0.04528847336769104</v>
+        <v>-0.04743527621030807</v>
       </c>
       <c r="AA2">
-        <v>0.001235313015058637</v>
+        <v>0.004278651904314756</v>
       </c>
       <c r="AB2">
-        <v>-0.03473043814301491</v>
+        <v>-0.02917807921767235</v>
       </c>
       <c r="AC2">
-        <v>0.07098454982042313</v>
+        <v>0.07051274925470352</v>
       </c>
       <c r="AD2">
-        <v>0.01986350864171982</v>
+        <v>0.01876925863325596</v>
       </c>
       <c r="AE2">
-        <v>0.02715152315795422</v>
+        <v>0.0329727828502655</v>
       </c>
       <c r="AF2">
-        <v>0.004412169102579355</v>
+        <v>0.002796234795823693</v>
       </c>
       <c r="AG2">
-        <v>-0.05361535400152206</v>
+        <v>-0.05339132249355316</v>
       </c>
       <c r="AH2">
-        <v>0.06689013540744781</v>
+        <v>0.0647805854678154</v>
       </c>
       <c r="AI2">
-        <v>-0.01650917157530785</v>
+        <v>-0.0232828576117754</v>
       </c>
       <c r="AJ2">
-        <v>-0.001382386079058051</v>
+        <v>-0.004794208332896233</v>
       </c>
       <c r="AK2">
-        <v>0.001403363537974656</v>
+        <v>-0.002022107131779194</v>
       </c>
       <c r="AL2">
-        <v>0.009141712449491024</v>
+        <v>0.01047993544489145</v>
       </c>
       <c r="AM2">
-        <v>0.04659720882773399</v>
+        <v>0.04661285877227783</v>
       </c>
       <c r="AN2">
-        <v>-0.04870928078889847</v>
+        <v>-0.05249818041920662</v>
       </c>
       <c r="AO2">
-        <v>-0.04849283397197723</v>
+        <v>-0.04799677059054375</v>
       </c>
       <c r="AP2">
-        <v>0.06083827838301659</v>
+        <v>0.0608854629099369</v>
       </c>
       <c r="AQ2">
-        <v>0.004601722117513418</v>
+        <v>-0.0006916901329532266</v>
       </c>
       <c r="AR2">
-        <v>0.08610618859529495</v>
+        <v>0.08087191730737686</v>
       </c>
       <c r="AS2">
-        <v>0.05340186879038811</v>
+        <v>0.04975810647010803</v>
       </c>
       <c r="AT2">
-        <v>0.006767577491700649</v>
+        <v>0.0126125430688262</v>
       </c>
       <c r="AU2">
-        <v>-0.03740189597010612</v>
+        <v>-0.04053300619125366</v>
       </c>
       <c r="AV2">
-        <v>-0.02818275615572929</v>
+        <v>-0.02889508195221424</v>
       </c>
       <c r="AW2">
-        <v>-0.01639852672815323</v>
+        <v>-0.01619330234825611</v>
       </c>
       <c r="AX2">
-        <v>-0.006524836178869009</v>
+        <v>-0.009523252956569195</v>
       </c>
       <c r="AY2">
-        <v>-0.03067458420991898</v>
+        <v>-0.0305724460631609</v>
       </c>
       <c r="AZ2">
-        <v>-0.02798713184893131</v>
+        <v>-0.03701308742165565</v>
       </c>
       <c r="BA2">
-        <v>0.0519394688308239</v>
+        <v>0.05456046015024185</v>
       </c>
       <c r="BB2">
-        <v>-0.0416499637067318</v>
+        <v>-0.04571912437677383</v>
       </c>
       <c r="BC2">
-        <v>0.01263628248125315</v>
+        <v>0.009774412959814072</v>
       </c>
       <c r="BD2">
-        <v>0.05894159898161888</v>
+        <v>0.05801678821444511</v>
       </c>
       <c r="BE2">
-        <v>0.001617922331206501</v>
+        <v>-0.003428380005061626</v>
       </c>
       <c r="BF2">
-        <v>0.006770914420485497</v>
+        <v>0.006626924034208059</v>
       </c>
       <c r="BG2">
-        <v>-0.02887460775673389</v>
+        <v>-0.02990960143506527</v>
       </c>
       <c r="BH2">
-        <v>-0.003609353210777044</v>
+        <v>0.001255450653843582</v>
       </c>
       <c r="BI2">
-        <v>0.02978496253490448</v>
+        <v>0.02963191829621792</v>
       </c>
       <c r="BJ2">
-        <v>0.04598629102110863</v>
+        <v>0.03997368365526199</v>
       </c>
       <c r="BK2">
-        <v>0.001393973012454808</v>
+        <v>0.001278360141441226</v>
       </c>
       <c r="BL2">
-        <v>0.01373077556490898</v>
+        <v>0.02248969860374928</v>
       </c>
       <c r="BM2">
-        <v>0.01777669228613377</v>
+        <v>0.01893111318349838</v>
       </c>
       <c r="BN2">
-        <v>-0.08080675452947617</v>
+        <v>-0.07888061553239822</v>
       </c>
       <c r="BO2">
-        <v>-0.01838044263422489</v>
+        <v>-0.01821249723434448</v>
       </c>
       <c r="BP2">
-        <v>0.002699908800423145</v>
+        <v>0.008741690777242184</v>
       </c>
       <c r="BQ2">
-        <v>0.04506829008460045</v>
+        <v>0.04365979507565498</v>
       </c>
       <c r="BR2">
-        <v>0.001722860732115805</v>
+        <v>0.005943033378571272</v>
       </c>
       <c r="BS2">
-        <v>-0.002898581558838487</v>
+        <v>-0.0009122471674345434</v>
       </c>
       <c r="BT2">
-        <v>-0.001845618826337159</v>
+        <v>-0.001234863302670419</v>
       </c>
       <c r="BU2">
-        <v>-0.05117091163992882</v>
+        <v>-0.05430653318762779</v>
       </c>
       <c r="BV2">
-        <v>-0.06110632047057152</v>
+        <v>-0.06034784391522408</v>
       </c>
       <c r="BW2">
-        <v>0.00666351430118084</v>
+        <v>0.0109299561008811</v>
       </c>
       <c r="BX2">
-        <v>0.06393320113420486</v>
+        <v>0.06625480204820633</v>
       </c>
       <c r="BY2">
-        <v>0.00218043546192348</v>
+        <v>0.002411019057035446</v>
       </c>
       <c r="BZ2">
-        <v>0.04028729349374771</v>
+        <v>0.04329536110162735</v>
       </c>
       <c r="CA2">
-        <v>-0.006432416848838329</v>
+        <v>-0.007340299896895885</v>
       </c>
       <c r="CB2">
-        <v>-0.05484266951680183</v>
+        <v>-0.05553503707051277</v>
       </c>
       <c r="CC2">
-        <v>-0.003267018822953105</v>
+        <v>-0.002940857550129294</v>
       </c>
       <c r="CD2">
-        <v>0.003917196299880743</v>
+        <v>0.006512731313705444</v>
       </c>
       <c r="CE2">
-        <v>-0.01919263228774071</v>
+        <v>-0.01998342759907246</v>
       </c>
       <c r="CF2">
-        <v>0.007328506093472242</v>
+        <v>0.008668778464198112</v>
       </c>
       <c r="CG2">
-        <v>-0.09690298140048981</v>
+        <v>-0.09606932103633881</v>
       </c>
       <c r="CH2">
-        <v>-0.005360495299100876</v>
+        <v>-0.0005958150140941143</v>
       </c>
       <c r="CI2">
-        <v>0.0001427151000825688</v>
+        <v>-0.001296484377235174</v>
       </c>
       <c r="CJ2">
-        <v>-0.01559354923665524</v>
+        <v>-0.01612339355051517</v>
       </c>
       <c r="CK2">
-        <v>-0.0316178984940052</v>
+        <v>-0.03509048745036125</v>
       </c>
       <c r="CL2">
-        <v>-0.002016779966652393</v>
+        <v>-0.001699502696283162</v>
       </c>
       <c r="CM2">
-        <v>0.05751154571771622</v>
+        <v>0.05697492882609367</v>
       </c>
       <c r="CN2">
-        <v>0.009713779203593731</v>
+        <v>0.01107450667768717</v>
       </c>
       <c r="CO2">
-        <v>-0.001830643508583307</v>
+        <v>-0.001657107146456838</v>
       </c>
       <c r="CP2">
-        <v>0.05675151199102402</v>
+        <v>0.05014150589704514</v>
       </c>
       <c r="CQ2">
-        <v>0.009102931246161461</v>
+        <v>0.009636576287448406</v>
       </c>
       <c r="CR2">
-        <v>-0.002734131179749966</v>
+        <v>-0.001254559028893709</v>
       </c>
       <c r="CS2">
-        <v>0.002583177527412772</v>
+        <v>0.001422232715412974</v>
       </c>
       <c r="CT2">
-        <v>0.003832897869870067</v>
+        <v>0.004319373983889818</v>
       </c>
       <c r="CU2">
-        <v>0.01233665179461241</v>
+        <v>0.01010746695101261</v>
       </c>
       <c r="CV2">
-        <v>0.002037325873970985</v>
+        <v>0.001839626231230795</v>
       </c>
       <c r="CW2">
-        <v>0.007074072491377592</v>
+        <v>0.006433115340769291</v>
       </c>
       <c r="CX2">
-        <v>0.005321964155882597</v>
+        <v>0.004376029595732689</v>
       </c>
       <c r="CY2">
-        <v>0.02479940466582775</v>
+        <v>0.02450445108115673</v>
       </c>
       <c r="CZ2">
-        <v>0.0003071137762162834</v>
+        <v>0.001859955606050789</v>
       </c>
       <c r="DA2">
-        <v>-0.05377509444952011</v>
+        <v>-0.0527537539601326</v>
       </c>
       <c r="DB2">
-        <v>-0.0612640455365181</v>
+        <v>-0.05742114037275314</v>
       </c>
       <c r="DC2">
-        <v>-1.199341568280943E-05</v>
+        <v>0.0009773385245352983</v>
       </c>
       <c r="DD2">
-        <v>-0.04383830353617668</v>
+        <v>-0.04060946777462959</v>
       </c>
       <c r="DE2">
-        <v>0.001732223085127771</v>
+        <v>0.0002689545508474112</v>
       </c>
       <c r="DF2">
-        <v>0.06617124378681183</v>
+        <v>0.0680491030216217</v>
       </c>
       <c r="DG2">
-        <v>0.0002784945827443153</v>
+        <v>0.001981309615075588</v>
       </c>
       <c r="DH2">
-        <v>0.07453977316617966</v>
+        <v>0.07284381985664368</v>
       </c>
       <c r="DI2">
-        <v>-0.003308624029159546</v>
+        <v>-0.001108439406380057</v>
       </c>
       <c r="DJ2">
-        <v>0.06067542359232903</v>
+        <v>0.06140606477856636</v>
       </c>
       <c r="DK2">
-        <v>0.01999431848526001</v>
+        <v>0.02226071804761887</v>
       </c>
       <c r="DL2">
-        <v>-0.05879610404372215</v>
+        <v>-0.0623721070587635</v>
       </c>
       <c r="DM2">
-        <v>-0.0415119081735611</v>
+        <v>-0.03926233202219009</v>
       </c>
       <c r="DN2">
-        <v>0.05137300491333008</v>
+        <v>0.05061566084623337</v>
       </c>
       <c r="DO2">
-        <v>0.05755707994103432</v>
+        <v>0.05559496954083443</v>
       </c>
       <c r="DP2">
-        <v>-0.03440718352794647</v>
+        <v>-0.02687797136604786</v>
       </c>
       <c r="DQ2">
-        <v>0.002786821685731411</v>
+        <v>0.001666534575633705</v>
       </c>
       <c r="DR2">
-        <v>0.004669736605137587</v>
+        <v>0.007009049411863089</v>
       </c>
       <c r="DS2">
-        <v>-0.06701546162366867</v>
+        <v>-0.06721449643373489</v>
       </c>
       <c r="DT2">
-        <v>0.01288091670721769</v>
+        <v>0.01376517210155725</v>
       </c>
       <c r="DU2">
-        <v>0.006591760087758303</v>
+        <v>0.003396587446331978</v>
       </c>
       <c r="DV2">
-        <v>-0.004122303333133459</v>
+        <v>-0.005263444501906633</v>
       </c>
       <c r="DW2">
-        <v>0.001372118364088237</v>
+        <v>0.007519476115703583</v>
       </c>
       <c r="DX2">
-        <v>-0.06219130009412766</v>
+        <v>-0.06220299378037453</v>
       </c>
       <c r="DY2">
-        <v>0.03721510991454124</v>
+        <v>0.0369109995663166</v>
       </c>
       <c r="DZ2">
-        <v>0.001527237123809755</v>
+        <v>0.01058608945459127</v>
       </c>
       <c r="EA2">
-        <v>0.01049996260553598</v>
+        <v>0.01127772964537144</v>
       </c>
       <c r="EB2">
-        <v>-0.07162365317344666</v>
+        <v>-0.07208467274904251</v>
       </c>
       <c r="EC2">
-        <v>0.008469831198453903</v>
+        <v>0.003432408440858126</v>
       </c>
       <c r="ED2">
-        <v>-0.01515581086277962</v>
+        <v>-0.0166189968585968</v>
       </c>
       <c r="EE2">
-        <v>0.01171296648681164</v>
+        <v>0.01084456592798233</v>
       </c>
       <c r="EF2">
-        <v>-0.0529472716152668</v>
+        <v>-0.05570706725120544</v>
       </c>
       <c r="EG2">
-        <v>0.07427431643009186</v>
+        <v>0.07320322841405869</v>
       </c>
       <c r="EH2">
-        <v>-0.06681745499372482</v>
+        <v>-0.06156430393457413</v>
       </c>
       <c r="EI2">
-        <v>-0.0952082946896553</v>
+        <v>-0.09330297261476517</v>
       </c>
       <c r="EJ2">
-        <v>-0.03999354690313339</v>
+        <v>-0.04639077186584473</v>
       </c>
       <c r="EK2">
-        <v>0.0007776637794449925</v>
+        <v>0.0008767910185270011</v>
       </c>
       <c r="EL2">
-        <v>-0.006779843010008335</v>
+        <v>-0.00768986763432622</v>
       </c>
       <c r="EM2">
-        <v>-0.03900319337844849</v>
+        <v>-0.03016258217394352</v>
       </c>
       <c r="EN2">
-        <v>-0.0586889423429966</v>
+        <v>-0.05727881193161011</v>
       </c>
       <c r="EO2">
-        <v>0.04633964970707893</v>
+        <v>0.04663104191422462</v>
       </c>
       <c r="EP2">
-        <v>0.09768189489841461</v>
+        <v>0.09434507042169571</v>
       </c>
       <c r="EQ2">
-        <v>0.1312461942434311</v>
+        <v>0.1293002218008041</v>
       </c>
       <c r="ER2">
-        <v>0.0005941271665506065</v>
+        <v>-0.002248098375275731</v>
       </c>
       <c r="ES2">
-        <v>-0.004204579629004002</v>
+        <v>-0.003835506504401565</v>
       </c>
       <c r="ET2">
-        <v>-0.05202358588576317</v>
+        <v>-0.0541209802031517</v>
       </c>
       <c r="EU2">
-        <v>-0.01174631156027317</v>
+        <v>-0.0153121305629611</v>
       </c>
       <c r="EV2">
-        <v>-0.0164914820343256</v>
+        <v>-0.01722519285976887</v>
       </c>
       <c r="EW2">
-        <v>-0.001823726575821638</v>
+        <v>-0.000305693392874673</v>
       </c>
       <c r="EX2">
-        <v>-0.07006116956472397</v>
+        <v>-0.07200230658054352</v>
       </c>
       <c r="EY2">
-        <v>0.01566343195736408</v>
+        <v>0.01296232547610998</v>
       </c>
       <c r="EZ2">
-        <v>-0.04708586260676384</v>
+        <v>-0.04670292139053345</v>
       </c>
       <c r="FA2">
-        <v>0.008214317262172699</v>
+        <v>0.001073623425327241</v>
       </c>
       <c r="FB2">
-        <v>0.005392075050622225</v>
+        <v>0.004908730741590261</v>
       </c>
       <c r="FC2">
-        <v>0.02693005837500095</v>
+        <v>0.0247688889503479</v>
       </c>
       <c r="FD2">
-        <v>-0.006281810346990824</v>
+        <v>-0.004665629006922245</v>
       </c>
       <c r="FE2">
-        <v>0.03004483133554459</v>
+        <v>0.03121237456798553</v>
       </c>
       <c r="FF2">
-        <v>-0.1083019748330116</v>
+        <v>-0.106918029487133</v>
       </c>
       <c r="FG2">
-        <v>-0.06013932079076767</v>
+        <v>-0.05466160178184509</v>
       </c>
       <c r="FH2">
-        <v>0.003717505605891347</v>
+        <v>0.002040074439719319</v>
       </c>
       <c r="FI2">
-        <v>0.0145095931366086</v>
+        <v>0.01823871582746506</v>
       </c>
       <c r="FJ2">
-        <v>0.02286213077604771</v>
+        <v>0.02439945191144943</v>
       </c>
       <c r="FK2">
-        <v>0.02044028602540493</v>
+        <v>0.01750937104225159</v>
       </c>
       <c r="FL2">
-        <v>0.04209255799651146</v>
+        <v>0.04953750595450401</v>
       </c>
       <c r="FM2">
-        <v>0.05093789473176003</v>
+        <v>0.05205428600311279</v>
       </c>
       <c r="FN2">
-        <v>0.03844611346721649</v>
+        <v>0.04260757565498352</v>
       </c>
       <c r="FO2">
-        <v>0.003037413349375129</v>
+        <v>0.0006643745582550764</v>
       </c>
       <c r="FP2">
-        <v>0.004784482065588236</v>
+        <v>-0.00306821265257895</v>
       </c>
       <c r="FQ2">
-        <v>0.003834361908957362</v>
+        <v>0.002563259331509471</v>
       </c>
       <c r="FR2">
-        <v>-0.009946934878826141</v>
+        <v>-0.0109816137701273</v>
       </c>
       <c r="FS2">
-        <v>-0.002677775453776121</v>
+        <v>-0.002329857787117362</v>
       </c>
       <c r="FT2">
-        <v>0.00288377539254725</v>
+        <v>0.002322993939742446</v>
       </c>
       <c r="FU2">
-        <v>-0.06124228239059448</v>
+        <v>-0.06251130998134613</v>
       </c>
       <c r="FV2">
-        <v>0.06710665673017502</v>
+        <v>0.06353886425495148</v>
       </c>
       <c r="FW2">
-        <v>0.03670290857553482</v>
+        <v>0.03740422800183296</v>
       </c>
       <c r="FX2">
-        <v>0.006262511946260929</v>
+        <v>0.008847670629620552</v>
       </c>
       <c r="FY2">
-        <v>0.0003001508302986622</v>
+        <v>-0.0003191335999872535</v>
       </c>
       <c r="FZ2">
-        <v>0.001466841087676585</v>
+        <v>0.002804068149998784</v>
       </c>
       <c r="GA2">
-        <v>0.02253423817455769</v>
+        <v>0.02687266655266285</v>
       </c>
       <c r="GB2">
-        <v>0.008988603018224239</v>
+        <v>0.00845164991915226</v>
       </c>
       <c r="GC2">
-        <v>-0.0223013311624527</v>
+        <v>-0.0243156012147665</v>
       </c>
       <c r="GD2">
-        <v>0.05897608026862144</v>
+        <v>0.05969518795609474</v>
       </c>
       <c r="GE2">
-        <v>0.004748395644128323</v>
+        <v>0.003669302212074399</v>
       </c>
       <c r="GF2">
-        <v>-0.004953444004058838</v>
+        <v>-0.001029268023557961</v>
       </c>
       <c r="GG2">
-        <v>0.01221269182860851</v>
+        <v>0.01718929223716259</v>
       </c>
       <c r="GH2">
-        <v>0.006732731591910124</v>
+        <v>0.004704292397946119</v>
       </c>
       <c r="GI2">
-        <v>0.009608231484889984</v>
+        <v>0.01310983207076788</v>
       </c>
       <c r="GJ2">
-        <v>-0.006658696103841066</v>
+        <v>-0.0006625746027566493</v>
       </c>
       <c r="GK2">
-        <v>-0.04949522018432617</v>
+        <v>-0.04518056660890579</v>
       </c>
       <c r="GL2">
-        <v>-0.005224126856774092</v>
+        <v>0.001430299365893006</v>
       </c>
       <c r="GM2">
-        <v>-0.06054568290710449</v>
+        <v>-0.06790643185377121</v>
       </c>
       <c r="GN2">
-        <v>0.04841681942343712</v>
+        <v>0.04308951273560524</v>
       </c>
       <c r="GO2">
-        <v>-0.02500393427908421</v>
+        <v>-0.03094702027738094</v>
       </c>
       <c r="GP2">
-        <v>0.04554838687181473</v>
+        <v>0.04522097483277321</v>
       </c>
       <c r="GQ2">
-        <v>0.002317271661013365</v>
+        <v>0.001610152772627771</v>
       </c>
       <c r="GR2">
-        <v>0.007486420683562756</v>
+        <v>0.01386803016066551</v>
       </c>
       <c r="GS2">
-        <v>-0.006465076003223658</v>
+        <v>-0.01039025187492371</v>
       </c>
       <c r="GT2">
-        <v>-0.008627294562757015</v>
+        <v>-0.00176667794585228</v>
       </c>
       <c r="GU2">
-        <v>-0.002437085844576359</v>
+        <v>-0.001798506826162338</v>
       </c>
       <c r="GV2">
-        <v>-0.005963081028312445</v>
+        <v>-0.003852414432913065</v>
       </c>
       <c r="GW2">
-        <v>0.1241711601614952</v>
+        <v>0.1303173899650574</v>
       </c>
       <c r="GX2">
-        <v>-0.009083086624741554</v>
+        <v>-0.009441093541681767</v>
       </c>
       <c r="GY2">
-        <v>-0.006983345374464989</v>
+        <v>-0.008082636632025242</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Infrastructure.xlsx
+++ b/static/Models/Regression/Equation/Infrastructure.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-27</t>
+    <t>2024-03-01</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>0.02946851961314678</v>
+        <v>0.02194358594715595</v>
       </c>
       <c r="C2">
-        <v>0.02110550366342068</v>
+        <v>0.02760499902069569</v>
       </c>
       <c r="D2">
-        <v>-0.1063166260719299</v>
+        <v>-0.1006420329213142</v>
       </c>
       <c r="E2">
-        <v>0.06650622934103012</v>
+        <v>0.0602642148733139</v>
       </c>
       <c r="F2">
-        <v>0.00442738551646471</v>
+        <v>0.002246764721348882</v>
       </c>
       <c r="G2">
-        <v>0.137610986828804</v>
+        <v>0.1435779929161072</v>
       </c>
       <c r="H2">
-        <v>0.005153673235327005</v>
+        <v>0.004045125097036362</v>
       </c>
       <c r="I2">
-        <v>-0.01239355839788914</v>
+        <v>-0.0105599407106638</v>
       </c>
       <c r="J2">
-        <v>0.11100222915411</v>
+        <v>0.1092872321605682</v>
       </c>
       <c r="K2">
-        <v>-0.0014133604709059</v>
+        <v>0.001254417933523655</v>
       </c>
       <c r="L2">
-        <v>-0.002988289808854461</v>
+        <v>-2.086329368466977E-05</v>
       </c>
       <c r="M2">
-        <v>0.00323304464109242</v>
+        <v>0.003006697632372379</v>
       </c>
       <c r="N2">
-        <v>-0.006262241862714291</v>
+        <v>-0.005457667633891106</v>
       </c>
       <c r="O2">
-        <v>0.008181246928870678</v>
+        <v>0.01056251861155033</v>
       </c>
       <c r="P2">
-        <v>0.09867041558027267</v>
+        <v>0.09212621301412582</v>
       </c>
       <c r="Q2">
-        <v>-0.08819577097892761</v>
+        <v>-0.08014921098947525</v>
       </c>
       <c r="R2">
-        <v>0.01367334462702274</v>
+        <v>0.01243114750832319</v>
       </c>
       <c r="S2">
-        <v>-0.01404271088540554</v>
+        <v>-0.01327252201735973</v>
       </c>
       <c r="T2">
-        <v>0.03945020958781242</v>
+        <v>0.04221195355057716</v>
       </c>
       <c r="U2">
-        <v>0.01893632486462593</v>
+        <v>0.01304130535572767</v>
       </c>
       <c r="V2">
-        <v>7.328904757741839E-05</v>
+        <v>-0.001459016697481275</v>
       </c>
       <c r="W2">
-        <v>0.03892350941896439</v>
+        <v>0.05046131834387779</v>
       </c>
       <c r="X2">
-        <v>0.005382100585848093</v>
+        <v>-0.0001791155664250255</v>
       </c>
       <c r="Y2">
-        <v>0.06069985777139664</v>
+        <v>0.06612325459718704</v>
       </c>
       <c r="Z2">
-        <v>-0.04743527621030807</v>
+        <v>-0.05185464769601822</v>
       </c>
       <c r="AA2">
-        <v>0.004278651904314756</v>
+        <v>0.004887952003628016</v>
       </c>
       <c r="AB2">
-        <v>-0.02917807921767235</v>
+        <v>-0.04508602619171143</v>
       </c>
       <c r="AC2">
-        <v>0.07051274925470352</v>
+        <v>0.07366430759429932</v>
       </c>
       <c r="AD2">
-        <v>0.01876925863325596</v>
+        <v>0.02040945179760456</v>
       </c>
       <c r="AE2">
-        <v>0.0329727828502655</v>
+        <v>0.01942156441509724</v>
       </c>
       <c r="AF2">
-        <v>0.002796234795823693</v>
+        <v>0.003011053893715143</v>
       </c>
       <c r="AG2">
-        <v>-0.05339132249355316</v>
+        <v>-0.05074035748839378</v>
       </c>
       <c r="AH2">
-        <v>0.0647805854678154</v>
+        <v>0.0634935200214386</v>
       </c>
       <c r="AI2">
-        <v>-0.0232828576117754</v>
+        <v>-0.0164933055639267</v>
       </c>
       <c r="AJ2">
-        <v>-0.004794208332896233</v>
+        <v>-0.00540694547817111</v>
       </c>
       <c r="AK2">
-        <v>-0.002022107131779194</v>
+        <v>0.003898213850334287</v>
       </c>
       <c r="AL2">
-        <v>0.01047993544489145</v>
+        <v>0.005974400322884321</v>
       </c>
       <c r="AM2">
-        <v>0.04661285877227783</v>
+        <v>0.03359217196702957</v>
       </c>
       <c r="AN2">
-        <v>-0.05249818041920662</v>
+        <v>-0.06155413761734962</v>
       </c>
       <c r="AO2">
-        <v>-0.04799677059054375</v>
+        <v>-0.05609729140996933</v>
       </c>
       <c r="AP2">
-        <v>0.0608854629099369</v>
+        <v>0.05309180915355682</v>
       </c>
       <c r="AQ2">
-        <v>-0.0006916901329532266</v>
+        <v>0.004670063033699989</v>
       </c>
       <c r="AR2">
-        <v>0.08087191730737686</v>
+        <v>0.0725097581744194</v>
       </c>
       <c r="AS2">
-        <v>0.04975810647010803</v>
+        <v>0.04160960018634796</v>
       </c>
       <c r="AT2">
-        <v>0.0126125430688262</v>
+        <v>0.01203830074518919</v>
       </c>
       <c r="AU2">
-        <v>-0.04053300619125366</v>
+        <v>-0.04258463531732559</v>
       </c>
       <c r="AV2">
-        <v>-0.02889508195221424</v>
+        <v>-0.03691433742642403</v>
       </c>
       <c r="AW2">
-        <v>-0.01619330234825611</v>
+        <v>-0.01685718446969986</v>
       </c>
       <c r="AX2">
-        <v>-0.009523252956569195</v>
+        <v>-0.02069885097444057</v>
       </c>
       <c r="AY2">
-        <v>-0.0305724460631609</v>
+        <v>-0.02590178698301315</v>
       </c>
       <c r="AZ2">
-        <v>-0.03701308742165565</v>
+        <v>-0.03072689287364483</v>
       </c>
       <c r="BA2">
-        <v>0.05456046015024185</v>
+        <v>0.05783900991082191</v>
       </c>
       <c r="BB2">
-        <v>-0.04571912437677383</v>
+        <v>-0.03253482282161713</v>
       </c>
       <c r="BC2">
-        <v>0.009774412959814072</v>
+        <v>0.003961134236305952</v>
       </c>
       <c r="BD2">
-        <v>0.05801678821444511</v>
+        <v>0.05931535363197327</v>
       </c>
       <c r="BE2">
-        <v>-0.003428380005061626</v>
+        <v>-0.002234021201729774</v>
       </c>
       <c r="BF2">
-        <v>0.006626924034208059</v>
+        <v>0.01665152981877327</v>
       </c>
       <c r="BG2">
-        <v>-0.02990960143506527</v>
+        <v>-0.02885116450488567</v>
       </c>
       <c r="BH2">
-        <v>0.001255450653843582</v>
+        <v>0.0005793080781586468</v>
       </c>
       <c r="BI2">
-        <v>0.02963191829621792</v>
+        <v>0.03217617049813271</v>
       </c>
       <c r="BJ2">
-        <v>0.03997368365526199</v>
+        <v>0.04405474662780762</v>
       </c>
       <c r="BK2">
-        <v>0.001278360141441226</v>
+        <v>0.006313375197350979</v>
       </c>
       <c r="BL2">
-        <v>0.02248969860374928</v>
+        <v>0.01612787880003452</v>
       </c>
       <c r="BM2">
-        <v>0.01893111318349838</v>
+        <v>0.01739655062556267</v>
       </c>
       <c r="BN2">
-        <v>-0.07888061553239822</v>
+        <v>-0.07698815315961838</v>
       </c>
       <c r="BO2">
-        <v>-0.01821249723434448</v>
+        <v>-0.009732557460665703</v>
       </c>
       <c r="BP2">
-        <v>0.008741690777242184</v>
+        <v>0.00525846378877759</v>
       </c>
       <c r="BQ2">
-        <v>0.04365979507565498</v>
+        <v>0.04673630371689796</v>
       </c>
       <c r="BR2">
-        <v>0.005943033378571272</v>
+        <v>-0.004384924657642841</v>
       </c>
       <c r="BS2">
-        <v>-0.0009122471674345434</v>
+        <v>0.0007665773155167699</v>
       </c>
       <c r="BT2">
-        <v>-0.001234863302670419</v>
+        <v>0.004298617132008076</v>
       </c>
       <c r="BU2">
-        <v>-0.05430653318762779</v>
+        <v>-0.05130896717309952</v>
       </c>
       <c r="BV2">
-        <v>-0.06034784391522408</v>
+        <v>-0.05064495280385017</v>
       </c>
       <c r="BW2">
-        <v>0.0109299561008811</v>
+        <v>0.007526728790253401</v>
       </c>
       <c r="BX2">
-        <v>0.06625480204820633</v>
+        <v>0.0640355721116066</v>
       </c>
       <c r="BY2">
-        <v>0.002411019057035446</v>
+        <v>0.01317851990461349</v>
       </c>
       <c r="BZ2">
-        <v>0.04329536110162735</v>
+        <v>0.03974902257323265</v>
       </c>
       <c r="CA2">
-        <v>-0.007340299896895885</v>
+        <v>-0.009056873619556427</v>
       </c>
       <c r="CB2">
-        <v>-0.05553503707051277</v>
+        <v>-0.06883551925420761</v>
       </c>
       <c r="CC2">
-        <v>-0.002940857550129294</v>
+        <v>-0.002509424928575754</v>
       </c>
       <c r="CD2">
-        <v>0.006512731313705444</v>
+        <v>0.002063266700133681</v>
       </c>
       <c r="CE2">
-        <v>-0.01998342759907246</v>
+        <v>-0.02693837136030197</v>
       </c>
       <c r="CF2">
-        <v>0.008668778464198112</v>
+        <v>0.00515595730394125</v>
       </c>
       <c r="CG2">
-        <v>-0.09606932103633881</v>
+        <v>-0.1011946871876717</v>
       </c>
       <c r="CH2">
-        <v>-0.0005958150140941143</v>
+        <v>-0.0005923793069086969</v>
       </c>
       <c r="CI2">
-        <v>-0.001296484377235174</v>
+        <v>-0.0001979517983272672</v>
       </c>
       <c r="CJ2">
-        <v>-0.01612339355051517</v>
+        <v>-0.00950904656201601</v>
       </c>
       <c r="CK2">
-        <v>-0.03509048745036125</v>
+        <v>-0.03215775638818741</v>
       </c>
       <c r="CL2">
-        <v>-0.001699502696283162</v>
+        <v>-0.003010434098541737</v>
       </c>
       <c r="CM2">
-        <v>0.05697492882609367</v>
+        <v>0.04897687956690788</v>
       </c>
       <c r="CN2">
-        <v>0.01107450667768717</v>
+        <v>0.01206833962351084</v>
       </c>
       <c r="CO2">
-        <v>-0.001657107146456838</v>
+        <v>-0.0008704326464794576</v>
       </c>
       <c r="CP2">
-        <v>0.05014150589704514</v>
+        <v>0.05693947151303291</v>
       </c>
       <c r="CQ2">
-        <v>0.009636576287448406</v>
+        <v>0.01223665475845337</v>
       </c>
       <c r="CR2">
-        <v>-0.001254559028893709</v>
+        <v>0.005262560211122036</v>
       </c>
       <c r="CS2">
-        <v>0.001422232715412974</v>
+        <v>0.003722354304045439</v>
       </c>
       <c r="CT2">
-        <v>0.004319373983889818</v>
+        <v>0.004637783858925104</v>
       </c>
       <c r="CU2">
-        <v>0.01010746695101261</v>
+        <v>0.01342086028307676</v>
       </c>
       <c r="CV2">
-        <v>0.001839626231230795</v>
+        <v>-0.002637624042108655</v>
       </c>
       <c r="CW2">
-        <v>0.006433115340769291</v>
+        <v>0.00264595658518374</v>
       </c>
       <c r="CX2">
-        <v>0.004376029595732689</v>
+        <v>-0.00275307591073215</v>
       </c>
       <c r="CY2">
-        <v>0.02450445108115673</v>
+        <v>0.02315135858952999</v>
       </c>
       <c r="CZ2">
-        <v>0.001859955606050789</v>
+        <v>-0.00109185604378581</v>
       </c>
       <c r="DA2">
-        <v>-0.0527537539601326</v>
+        <v>-0.04604283347725868</v>
       </c>
       <c r="DB2">
-        <v>-0.05742114037275314</v>
+        <v>-0.05315417423844337</v>
       </c>
       <c r="DC2">
-        <v>0.0009773385245352983</v>
+        <v>0.001539111020974815</v>
       </c>
       <c r="DD2">
-        <v>-0.04060946777462959</v>
+        <v>-0.04405971243977547</v>
       </c>
       <c r="DE2">
-        <v>0.0002689545508474112</v>
+        <v>0.002558833919465542</v>
       </c>
       <c r="DF2">
-        <v>0.0680491030216217</v>
+        <v>0.06283079832792282</v>
       </c>
       <c r="DG2">
-        <v>0.001981309615075588</v>
+        <v>-0.003131888806819916</v>
       </c>
       <c r="DH2">
-        <v>0.07284381985664368</v>
+        <v>0.05921553075313568</v>
       </c>
       <c r="DI2">
-        <v>-0.001108439406380057</v>
+        <v>-0.004717305768281221</v>
       </c>
       <c r="DJ2">
-        <v>0.06140606477856636</v>
+        <v>0.06459660828113556</v>
       </c>
       <c r="DK2">
-        <v>0.02226071804761887</v>
+        <v>0.03096368908882141</v>
       </c>
       <c r="DL2">
-        <v>-0.0623721070587635</v>
+        <v>-0.06951985508203506</v>
       </c>
       <c r="DM2">
-        <v>-0.03926233202219009</v>
+        <v>-0.03273986279964447</v>
       </c>
       <c r="DN2">
-        <v>0.05061566084623337</v>
+        <v>0.05179261043667793</v>
       </c>
       <c r="DO2">
-        <v>0.05559496954083443</v>
+        <v>0.05149342864751816</v>
       </c>
       <c r="DP2">
-        <v>-0.02687797136604786</v>
+        <v>-0.03491431474685669</v>
       </c>
       <c r="DQ2">
-        <v>0.001666534575633705</v>
+        <v>0.002736265538260341</v>
       </c>
       <c r="DR2">
-        <v>0.007009049411863089</v>
+        <v>-0.003122550202533603</v>
       </c>
       <c r="DS2">
-        <v>-0.06721449643373489</v>
+        <v>-0.05868854373693466</v>
       </c>
       <c r="DT2">
-        <v>0.01376517210155725</v>
+        <v>0.0137150576338172</v>
       </c>
       <c r="DU2">
-        <v>0.003396587446331978</v>
+        <v>-0.003964823205024004</v>
       </c>
       <c r="DV2">
-        <v>-0.005263444501906633</v>
+        <v>-0.005083789583295584</v>
       </c>
       <c r="DW2">
-        <v>0.007519476115703583</v>
+        <v>-0.003201610408723354</v>
       </c>
       <c r="DX2">
-        <v>-0.06220299378037453</v>
+        <v>-0.06135264039039612</v>
       </c>
       <c r="DY2">
-        <v>0.0369109995663166</v>
+        <v>0.04340269044041634</v>
       </c>
       <c r="DZ2">
-        <v>0.01058608945459127</v>
+        <v>0.01545112021267414</v>
       </c>
       <c r="EA2">
-        <v>0.01127772964537144</v>
+        <v>0.01975606009364128</v>
       </c>
       <c r="EB2">
-        <v>-0.07208467274904251</v>
+        <v>-0.07064430415630341</v>
       </c>
       <c r="EC2">
-        <v>0.003432408440858126</v>
+        <v>0.003372185863554478</v>
       </c>
       <c r="ED2">
-        <v>-0.0166189968585968</v>
+        <v>-0.01419724151492119</v>
       </c>
       <c r="EE2">
-        <v>0.01084456592798233</v>
+        <v>0.0129356449469924</v>
       </c>
       <c r="EF2">
-        <v>-0.05570706725120544</v>
+        <v>-0.06680769473314285</v>
       </c>
       <c r="EG2">
-        <v>0.07320322841405869</v>
+        <v>0.06365304440259933</v>
       </c>
       <c r="EH2">
-        <v>-0.06156430393457413</v>
+        <v>-0.07108686119318008</v>
       </c>
       <c r="EI2">
-        <v>-0.09330297261476517</v>
+        <v>-0.09809425473213196</v>
       </c>
       <c r="EJ2">
-        <v>-0.04639077186584473</v>
+        <v>-0.05882961302995682</v>
       </c>
       <c r="EK2">
-        <v>0.0008767910185270011</v>
+        <v>0.001320558716543019</v>
       </c>
       <c r="EL2">
-        <v>-0.00768986763432622</v>
+        <v>-0.007165292743593454</v>
       </c>
       <c r="EM2">
-        <v>-0.03016258217394352</v>
+        <v>-0.03577159717679024</v>
       </c>
       <c r="EN2">
-        <v>-0.05727881193161011</v>
+        <v>-0.06769949197769165</v>
       </c>
       <c r="EO2">
-        <v>0.04663104191422462</v>
+        <v>0.03970056027173996</v>
       </c>
       <c r="EP2">
-        <v>0.09434507042169571</v>
+        <v>0.08580855280160904</v>
       </c>
       <c r="EQ2">
-        <v>0.1293002218008041</v>
+        <v>0.1205746531486511</v>
       </c>
       <c r="ER2">
-        <v>-0.002248098375275731</v>
+        <v>-0.0028782794252038</v>
       </c>
       <c r="ES2">
-        <v>-0.003835506504401565</v>
+        <v>-0.008428468368947506</v>
       </c>
       <c r="ET2">
-        <v>-0.0541209802031517</v>
+        <v>-0.06100578978657722</v>
       </c>
       <c r="EU2">
-        <v>-0.0153121305629611</v>
+        <v>-0.00985448807477951</v>
       </c>
       <c r="EV2">
-        <v>-0.01722519285976887</v>
+        <v>-0.01678243465721607</v>
       </c>
       <c r="EW2">
-        <v>-0.000305693392874673</v>
+        <v>0.006188760045915842</v>
       </c>
       <c r="EX2">
-        <v>-0.07200230658054352</v>
+        <v>-0.06198127567768097</v>
       </c>
       <c r="EY2">
-        <v>0.01296232547610998</v>
+        <v>0.01417598407715559</v>
       </c>
       <c r="EZ2">
-        <v>-0.04670292139053345</v>
+        <v>-0.03882221877574921</v>
       </c>
       <c r="FA2">
-        <v>0.001073623425327241</v>
+        <v>0.005608321167528629</v>
       </c>
       <c r="FB2">
-        <v>0.004908730741590261</v>
+        <v>0.006161078345030546</v>
       </c>
       <c r="FC2">
-        <v>0.0247688889503479</v>
+        <v>0.01364618260413408</v>
       </c>
       <c r="FD2">
-        <v>-0.004665629006922245</v>
+        <v>-0.005313721019774675</v>
       </c>
       <c r="FE2">
-        <v>0.03121237456798553</v>
+        <v>0.04005783051252365</v>
       </c>
       <c r="FF2">
-        <v>-0.106918029487133</v>
+        <v>-0.1131136417388916</v>
       </c>
       <c r="FG2">
-        <v>-0.05466160178184509</v>
+        <v>-0.05298696085810661</v>
       </c>
       <c r="FH2">
-        <v>0.002040074439719319</v>
+        <v>0.003060758113861084</v>
       </c>
       <c r="FI2">
-        <v>0.01823871582746506</v>
+        <v>0.02048085443675518</v>
       </c>
       <c r="FJ2">
-        <v>0.02439945191144943</v>
+        <v>0.01012451574206352</v>
       </c>
       <c r="FK2">
-        <v>0.01750937104225159</v>
+        <v>-0.0002783479867503047</v>
       </c>
       <c r="FL2">
-        <v>0.04953750595450401</v>
+        <v>0.04537229984998703</v>
       </c>
       <c r="FM2">
-        <v>0.05205428600311279</v>
+        <v>0.0505438968539238</v>
       </c>
       <c r="FN2">
-        <v>0.04260757565498352</v>
+        <v>0.03692582622170448</v>
       </c>
       <c r="FO2">
-        <v>0.0006643745582550764</v>
+        <v>0.00155792327132076</v>
       </c>
       <c r="FP2">
-        <v>-0.00306821265257895</v>
+        <v>0.001897851005196571</v>
       </c>
       <c r="FQ2">
-        <v>0.002563259331509471</v>
+        <v>0.003251277143135667</v>
       </c>
       <c r="FR2">
-        <v>-0.0109816137701273</v>
+        <v>-0.0095549700781703</v>
       </c>
       <c r="FS2">
-        <v>-0.002329857787117362</v>
+        <v>-0.002572011202573776</v>
       </c>
       <c r="FT2">
-        <v>0.002322993939742446</v>
+        <v>0.002891628071665764</v>
       </c>
       <c r="FU2">
-        <v>-0.06251130998134613</v>
+        <v>-0.05963627249002457</v>
       </c>
       <c r="FV2">
-        <v>0.06353886425495148</v>
+        <v>0.06548766046762466</v>
       </c>
       <c r="FW2">
-        <v>0.03740422800183296</v>
+        <v>0.04003557562828064</v>
       </c>
       <c r="FX2">
-        <v>0.008847670629620552</v>
+        <v>0.008336707949638367</v>
       </c>
       <c r="FY2">
-        <v>-0.0003191335999872535</v>
+        <v>0.00581687455996871</v>
       </c>
       <c r="FZ2">
-        <v>0.002804068149998784</v>
+        <v>0.002915926510468125</v>
       </c>
       <c r="GA2">
-        <v>0.02687266655266285</v>
+        <v>0.02896982058882713</v>
       </c>
       <c r="GB2">
-        <v>0.00845164991915226</v>
+        <v>0.001605918165296316</v>
       </c>
       <c r="GC2">
-        <v>-0.0243156012147665</v>
+        <v>-0.02560350485146046</v>
       </c>
       <c r="GD2">
-        <v>0.05969518795609474</v>
+        <v>0.06431714445352554</v>
       </c>
       <c r="GE2">
-        <v>0.003669302212074399</v>
+        <v>0.004924423526972532</v>
       </c>
       <c r="GF2">
-        <v>-0.001029268023557961</v>
+        <v>-0.009165896102786064</v>
       </c>
       <c r="GG2">
-        <v>0.01718929223716259</v>
+        <v>0.01250656880438328</v>
       </c>
       <c r="GH2">
-        <v>0.004704292397946119</v>
+        <v>-0.003476528218016028</v>
       </c>
       <c r="GI2">
-        <v>0.01310983207076788</v>
+        <v>0.00303417444229126</v>
       </c>
       <c r="GJ2">
-        <v>-0.0006625746027566493</v>
+        <v>-0.008529050275683403</v>
       </c>
       <c r="GK2">
-        <v>-0.04518056660890579</v>
+        <v>-0.03920966386795044</v>
       </c>
       <c r="GL2">
-        <v>0.001430299365893006</v>
+        <v>-0.0008544721640646458</v>
       </c>
       <c r="GM2">
-        <v>-0.06790643185377121</v>
+        <v>-0.07274090498685837</v>
       </c>
       <c r="GN2">
-        <v>0.04308951273560524</v>
+        <v>0.05140817910432816</v>
       </c>
       <c r="GO2">
-        <v>-0.03094702027738094</v>
+        <v>-0.03147871792316437</v>
       </c>
       <c r="GP2">
-        <v>0.04522097483277321</v>
+        <v>0.04576407372951508</v>
       </c>
       <c r="GQ2">
-        <v>0.001610152772627771</v>
+        <v>-0.003976257517933846</v>
       </c>
       <c r="GR2">
-        <v>0.01386803016066551</v>
+        <v>0.01424530427902937</v>
       </c>
       <c r="GS2">
-        <v>-0.01039025187492371</v>
+        <v>-0.019016332924366</v>
       </c>
       <c r="GT2">
-        <v>-0.00176667794585228</v>
+        <v>-0.01100252009928226</v>
       </c>
       <c r="GU2">
-        <v>-0.001798506826162338</v>
+        <v>-0.001599488197825849</v>
       </c>
       <c r="GV2">
-        <v>-0.003852414432913065</v>
+        <v>0.00108580500818789</v>
       </c>
       <c r="GW2">
-        <v>0.1303173899650574</v>
+        <v>0.1251716762781143</v>
       </c>
       <c r="GX2">
-        <v>-0.009441093541681767</v>
+        <v>-0.007255897391587496</v>
       </c>
       <c r="GY2">
-        <v>-0.008082636632025242</v>
+        <v>-0.006175444927066565</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Infrastructure.xlsx
+++ b/static/Models/Regression/Equation/Infrastructure.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02591317519545555</v>
+        <v>0.02718170545995235</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02142024040222168</v>
+        <v>0.02778731472790241</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.09572651237249374</v>
+        <v>-0.09639965742826462</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06272203475236893</v>
+        <v>0.06330613791942596</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004487656522542238</v>
+        <v>0.008820956572890282</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1436835527420044</v>
+        <v>0.1393619924783707</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002870477735996246</v>
+        <v>0.004946578294038773</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.009585408493876457</v>
+        <v>-0.01100513059645891</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1120211258530617</v>
+        <v>0.1114684566855431</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002548801945522428</v>
+        <v>-0.002802245086058974</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.002953160554170609</v>
+        <v>-0.002240774454548955</v>
       </c>
       <c r="M2" t="n">
-        <v>0.007390656508505344</v>
+        <v>0.007817648351192474</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.01193678006529808</v>
+        <v>-0.01057509053498507</v>
       </c>
       <c r="O2" t="n">
-        <v>0.007150006480515003</v>
+        <v>0.001002216944471002</v>
       </c>
       <c r="P2" t="n">
-        <v>0.09031667560338974</v>
+        <v>0.09070342779159546</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.08123616874217987</v>
+        <v>-0.07440128177404404</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01149738859385252</v>
+        <v>0.007987481541931629</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.01028716284781694</v>
+        <v>-0.01214324869215488</v>
       </c>
       <c r="T2" t="n">
-        <v>0.04199396446347237</v>
+        <v>0.04099015891551971</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01360686868429184</v>
+        <v>0.01374331675469875</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.004047176335006952</v>
+        <v>-0.008271713741123676</v>
       </c>
       <c r="W2" t="n">
-        <v>0.04632585868239403</v>
+        <v>0.04853851348161697</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.0004524601972661912</v>
+        <v>0.001388582168146968</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.06616191565990448</v>
+        <v>0.07066559791564941</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.04490147903561592</v>
+        <v>-0.05153137445449829</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.004088670946657658</v>
+        <v>0.004860877525061369</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.04063714295625687</v>
+        <v>-0.04208147898316383</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.07459236681461334</v>
+        <v>0.07568084448575974</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.02058705687522888</v>
+        <v>0.01914925128221512</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.02447347715497017</v>
+        <v>0.0216880738735199</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.002323453314602375</v>
+        <v>0.007621282245963812</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.04983178898692131</v>
+        <v>-0.05307982489466667</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.06702014803886414</v>
+        <v>0.06685957312583923</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.01624807715415955</v>
+        <v>-0.02015221677720547</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.004963783547282219</v>
+        <v>-0.00250546052120626</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.003304877551272511</v>
+        <v>0.004932961892336607</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.0007602998521178961</v>
+        <v>-0.002639963058754802</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.03846724331378937</v>
+        <v>0.03742759674787521</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.05958715081214905</v>
+        <v>-0.0568573996424675</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.05437461286783218</v>
+        <v>-0.05566325783729553</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.05073776468634605</v>
+        <v>0.05054136738181114</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.0004469652776606381</v>
+        <v>0.005276617128401995</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.06600877642631531</v>
+        <v>0.06405340880155563</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.04352392256259918</v>
+        <v>0.04831146448850632</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.008308033458888531</v>
+        <v>0.007937340065836906</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.04381860792636871</v>
+        <v>-0.0426383875310421</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.03646625578403473</v>
+        <v>-0.0369904451072216</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.01768590696156025</v>
+        <v>-0.01682915911078453</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.01615974865853786</v>
+        <v>-0.01699076965451241</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.02337541244924068</v>
+        <v>-0.02151212282478809</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.0294355284422636</v>
+        <v>-0.03176836296916008</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.05415411293506622</v>
+        <v>0.05449745431542397</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0.0376833900809288</v>
+        <v>-0.03280175477266312</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.008527535013854504</v>
+        <v>0.005002550780773163</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.05939033254981041</v>
+        <v>0.05790213122963905</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.00262817251496017</v>
+        <v>-0.0008743467624299228</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.01151756662875414</v>
+        <v>0.01506564021110535</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.02825536206364632</v>
+        <v>-0.02974876202642918</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.002573093166574836</v>
+        <v>0.003465098328888416</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.03214763849973679</v>
+        <v>0.03122636489570141</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.04007365927100182</v>
+        <v>0.03570857271552086</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.007076018489897251</v>
+        <v>0.003994081169366837</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.02020552381873131</v>
+        <v>0.02041521295905113</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.02340571023523808</v>
+        <v>0.02368023246526718</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.08129925280809402</v>
+        <v>-0.07914097607135773</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0.01343329343944788</v>
+        <v>-0.01165561191737652</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.006862202659249306</v>
+        <v>0.004861076362431049</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.04399938136339188</v>
+        <v>0.03499804064631462</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.004122048150748014</v>
+        <v>-0.001081559108570218</v>
       </c>
       <c r="BS2" t="n">
-        <v>8.071870979620144e-05</v>
+        <v>0.002380372956395149</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.003594870679080486</v>
+        <v>0.004462299402803183</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.05197316408157349</v>
+        <v>-0.05305677652359009</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.05045297369360924</v>
+        <v>-0.05341895669698715</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.01205087266862392</v>
+        <v>0.01459156535565853</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.06699927896261215</v>
+        <v>0.06733457744121552</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.01088974345475435</v>
+        <v>0.007064961362630129</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.04244325682520866</v>
+        <v>0.04213098809123039</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.01027352828532457</v>
+        <v>-0.01015199720859528</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.0679730549454689</v>
+        <v>-0.06465926766395569</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.001280125230550766</v>
+        <v>-0.002621980849653482</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.003302630502730608</v>
+        <v>-0.003027819795534015</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.02607268840074539</v>
+        <v>-0.02736243046820164</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.008233259432017803</v>
+        <v>-0.0001979729859158397</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.09705307334661484</v>
+        <v>-0.09183613210916519</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.001378755085170269</v>
+        <v>0.001026639132760465</v>
       </c>
       <c r="CI2" t="n">
-        <v>-3.266212297603488e-05</v>
+        <v>-0.001572475768625736</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.009893693029880524</v>
+        <v>-0.01776350662112236</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.03229235112667084</v>
+        <v>-0.03371892496943474</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.001657562563195825</v>
+        <v>-0.0032224056776613</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.04923997446894646</v>
+        <v>0.04919958487153053</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.009168901480734348</v>
+        <v>0.01008900348097086</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.0006364521686919034</v>
+        <v>-0.002294793957844377</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.05713197961449623</v>
+        <v>0.06523820757865906</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.008545305579900742</v>
+        <v>0.007999529130756855</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.005560584366321564</v>
+        <v>0.002424904378131032</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.003613916225731373</v>
+        <v>0.002100224606692791</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.00595902232453227</v>
+        <v>0.004423510283231735</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.01016217935830355</v>
+        <v>0.007805418223142624</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.002109389752149582</v>
+        <v>0.004545423202216625</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.003147906856611371</v>
+        <v>0.003730408614501357</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.003221344435587525</v>
+        <v>-0.002670870395377278</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.02177436649799347</v>
+        <v>0.02256834879517555</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.001823322614654899</v>
+        <v>-0.001276146504096687</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.04839539527893066</v>
+        <v>-0.04479990899562836</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.05576129257678986</v>
+        <v>-0.05975381657481194</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.00111631560139358</v>
+        <v>-0.0007741925655864179</v>
       </c>
       <c r="DD2" t="n">
-        <v>-0.04148278757929802</v>
+        <v>-0.04845526441931725</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.002574883634224534</v>
+        <v>0.0005863936967216432</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.06640124320983887</v>
+        <v>0.06639183312654495</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.0001123044785344973</v>
+        <v>-0.001607535290531814</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.06551826000213623</v>
+        <v>0.06307437270879745</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.0008982265717349946</v>
+        <v>-0.007013976573944092</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.06719668209552765</v>
+        <v>0.06698213517665863</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.03218437731266022</v>
+        <v>0.02576399967074394</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.06576691567897797</v>
+        <v>-0.05911114811897278</v>
       </c>
       <c r="DM2" t="n">
-        <v>-0.03589173778891563</v>
+        <v>-0.0409444086253643</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.05233581736683846</v>
+        <v>0.05111858621239662</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.05180138349533081</v>
+        <v>0.04967434331774712</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.03078905306756496</v>
+        <v>-0.02954442054033279</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.002556565450504422</v>
+        <v>0.000748202670365572</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.004526403266936541</v>
+        <v>-0.004162976052612066</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.06071105971932411</v>
+        <v>-0.05413641780614853</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.009839142672717571</v>
+        <v>0.01192065421491861</v>
       </c>
       <c r="DU2" t="n">
-        <v>-8.942769636632875e-05</v>
+        <v>0.006486428435891867</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.005137715023010969</v>
+        <v>-0.003582952078431845</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.001165297930128872</v>
+        <v>0.002242330927401781</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.06025657057762146</v>
+        <v>-0.06175683811306953</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.04440441727638245</v>
+        <v>0.03916564583778381</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.0155579075217247</v>
+        <v>0.0172338355332613</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.02025219611823559</v>
+        <v>0.0156707726418972</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.07021865248680115</v>
+        <v>-0.0717674046754837</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.002466458361595869</v>
+        <v>0.003300129435956478</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0.01434363424777985</v>
+        <v>-0.0153726963326335</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.01310817990452051</v>
+        <v>0.01142668444663286</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.06098243221640587</v>
+        <v>-0.06043260544538498</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.06774994730949402</v>
+        <v>0.06616862863302231</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.07030834257602692</v>
+        <v>-0.0714033767580986</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0.09541880339384079</v>
+        <v>-0.09538928419351578</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.05814969912171364</v>
+        <v>-0.05860193446278572</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.00218667509034276</v>
+        <v>0.0004948214045725763</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.00730321928858757</v>
+        <v>-0.009033056907355785</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.03325637802481651</v>
+        <v>-0.0333094410598278</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.06393036246299744</v>
+        <v>-0.06506398320198059</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.04444308206439018</v>
+        <v>0.04899139702320099</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.09123624116182327</v>
+        <v>0.09674860537052155</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.1255321055650711</v>
+        <v>0.1224247962236404</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.00340738077647984</v>
+        <v>-0.000646084314212203</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.006264338735491037</v>
+        <v>-0.007288912311196327</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.06316986680030823</v>
+        <v>-0.06491318345069885</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.01445160340517759</v>
+        <v>-0.01114315632730722</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0.01990863308310509</v>
+        <v>-0.01844943314790726</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.005373912863433361</v>
+        <v>-0.004053197801113129</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.06639290601015091</v>
+        <v>-0.06424208730459213</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.01407936867326498</v>
+        <v>0.01266096252948046</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.0414753146469593</v>
+        <v>-0.04403291270136833</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.006694239564239979</v>
+        <v>0.008291793055832386</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.006122215650975704</v>
+        <v>0.004360418301075697</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.01966160908341408</v>
+        <v>0.0177752748131752</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.005645190365612507</v>
+        <v>-0.00506195891648531</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.04001372307538986</v>
+        <v>0.04253587499260902</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0.1141846850514412</v>
+        <v>-0.114776074886322</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.05019611120223999</v>
+        <v>-0.05064769089221954</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.003213821910321712</v>
+        <v>0.0007178157102316618</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.01734647899866104</v>
+        <v>0.01783710531890392</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.01091314107179642</v>
+        <v>0.009928562678396702</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.002874871017411351</v>
+        <v>0.0005166491027921438</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.04859679564833641</v>
+        <v>0.04971813037991524</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.0510219931602478</v>
+        <v>0.05048080906271935</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.04069250449538231</v>
+        <v>0.04082687944173813</v>
       </c>
       <c r="FO2" t="n">
-        <v>-9.341592522105202e-05</v>
+        <v>-0.003905929625034332</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.003111459547653794</v>
+        <v>-0.001227710861712694</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.003553113434463739</v>
+        <v>0.001748771639540792</v>
       </c>
       <c r="FR2" t="n">
-        <v>-0.009906211867928505</v>
+        <v>-0.01159373391419649</v>
       </c>
       <c r="FS2" t="n">
-        <v>-0.001071519800461829</v>
+        <v>-0.002715395763516426</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.002723653102293611</v>
+        <v>0.00123167724814266</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0.05972000956535339</v>
+        <v>-0.06058628484606743</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.06501900404691696</v>
+        <v>0.06379258632659912</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.04002825170755386</v>
+        <v>0.0388338640332222</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.007148669566959143</v>
+        <v>0.006497825961560011</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.004899269435554743</v>
+        <v>0.003206328721717</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.004549911711364985</v>
+        <v>-0.001911090803332627</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.02961347252130508</v>
+        <v>0.02752345055341721</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.005084526725113392</v>
+        <v>0.009620870463550091</v>
       </c>
       <c r="GC2" t="n">
-        <v>-0.02757292799651623</v>
+        <v>-0.03220577910542488</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.06053344905376434</v>
+        <v>0.05661624297499657</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.004847488831728697</v>
+        <v>0.00332297571003437</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0.007940038107335567</v>
+        <v>-0.01400094851851463</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.01476261671632528</v>
+        <v>0.01341425534337759</v>
       </c>
       <c r="GH2" t="n">
-        <v>-0.001120324363000691</v>
+        <v>0.003148244228214025</v>
       </c>
       <c r="GI2" t="n">
-        <v>0.005289255175739527</v>
+        <v>0.0006328539457172155</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-0.01513283792883158</v>
+        <v>-0.01320480275899172</v>
       </c>
       <c r="GK2" t="n">
-        <v>-0.03600805625319481</v>
+        <v>-0.03697113320231438</v>
       </c>
       <c r="GL2" t="n">
-        <v>-0.001380329485982656</v>
+        <v>-0.0028217697981745</v>
       </c>
       <c r="GM2" t="n">
-        <v>-0.07217086106538773</v>
+        <v>-0.0718681663274765</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.05104468017816544</v>
+        <v>0.0500430166721344</v>
       </c>
       <c r="GO2" t="n">
-        <v>-0.03502742946147919</v>
+        <v>-0.03361757844686508</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.04694351553916931</v>
+        <v>0.04553194344043732</v>
       </c>
       <c r="GQ2" t="n">
-        <v>-0.002514089224860072</v>
+        <v>0.001473177690058947</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.01088322233408689</v>
+        <v>0.008567511104047298</v>
       </c>
       <c r="GS2" t="n">
-        <v>-0.01470790896564722</v>
+        <v>-0.01514636166393757</v>
       </c>
       <c r="GT2" t="n">
-        <v>-0.005847858265042305</v>
+        <v>0.003615347668528557</v>
       </c>
       <c r="GU2" t="n">
-        <v>-0.002604448469355702</v>
+        <v>-0.001619516406208277</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.004349356517195702</v>
+        <v>0.003257774515077472</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.1261750310659409</v>
+        <v>0.1225366666913033</v>
       </c>
       <c r="GX2" t="n">
-        <v>-0.007678558584302664</v>
+        <v>-0.008207203820347786</v>
       </c>
       <c r="GY2" t="n">
-        <v>-0.005940777249634266</v>
+        <v>-0.007416141219437122</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Infrastructure.xlsx
+++ b/static/Models/Regression/Equation/Infrastructure.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02718170545995235</v>
+        <v>0.02499719150364399</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02778731472790241</v>
+        <v>0.02921673841774464</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.09639965742826462</v>
+        <v>-0.09518998116254807</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06330613791942596</v>
+        <v>0.06167855858802795</v>
       </c>
       <c r="F2" t="n">
-        <v>0.008820956572890282</v>
+        <v>0.005819630343466997</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1393619924783707</v>
+        <v>0.1410283893346786</v>
       </c>
       <c r="H2" t="n">
-        <v>0.004946578294038773</v>
+        <v>0.003793829586356878</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.01100513059645891</v>
+        <v>-0.01056885905563831</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1114684566855431</v>
+        <v>0.1073503494262695</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.002802245086058974</v>
+        <v>0.001941329450346529</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.002240774454548955</v>
+        <v>0.0006580183398909867</v>
       </c>
       <c r="M2" t="n">
-        <v>0.007817648351192474</v>
+        <v>0.007794634904712439</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.01057509053498507</v>
+        <v>-0.01164634060114622</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001002216944471002</v>
+        <v>-0.004418145399540663</v>
       </c>
       <c r="P2" t="n">
-        <v>0.09070342779159546</v>
+        <v>0.0915384516119957</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.07440128177404404</v>
+        <v>-0.06740881502628326</v>
       </c>
       <c r="R2" t="n">
-        <v>0.007987481541931629</v>
+        <v>0.007541543338447809</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.01214324869215488</v>
+        <v>-0.01056724134832621</v>
       </c>
       <c r="T2" t="n">
-        <v>0.04099015891551971</v>
+        <v>0.04268063232302666</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01374331675469875</v>
+        <v>0.009620469063520432</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.008271713741123676</v>
+        <v>-0.006952098570764065</v>
       </c>
       <c r="W2" t="n">
-        <v>0.04853851348161697</v>
+        <v>0.04949798434972763</v>
       </c>
       <c r="X2" t="n">
-        <v>0.001388582168146968</v>
+        <v>0.00359158287756145</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.07066559791564941</v>
+        <v>0.07446237653493881</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.05153137445449829</v>
+        <v>-0.05867229774594307</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.004860877525061369</v>
+        <v>0.004781668540090322</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.04208147898316383</v>
+        <v>-0.04226207360625267</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.07568084448575974</v>
+        <v>0.07685426622629166</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.01914925128221512</v>
+        <v>0.02037935145199299</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.0216880738735199</v>
+        <v>0.02348718605935574</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.007621282245963812</v>
+        <v>0.006259413436055183</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.05307982489466667</v>
+        <v>-0.05120331421494484</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.06685957312583923</v>
+        <v>0.06541758030653</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.02015221677720547</v>
+        <v>-0.02234009839594364</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.00250546052120626</v>
+        <v>0.004370593000203371</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.004932961892336607</v>
+        <v>0.006776029244065285</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.002639963058754802</v>
+        <v>0.004198318347334862</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.03742759674787521</v>
+        <v>0.03109887056052685</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.0568573996424675</v>
+        <v>-0.04670944437384605</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.05566325783729553</v>
+        <v>-0.05710848048329353</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.05054136738181114</v>
+        <v>0.05457328259944916</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.005276617128401995</v>
+        <v>0.006264165509492159</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.06405340880155563</v>
+        <v>0.0704919695854187</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.04831146448850632</v>
+        <v>0.05636781454086304</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.007937340065836906</v>
+        <v>0.001708523952402174</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.0426383875310421</v>
+        <v>-0.0415736585855484</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.0369904451072216</v>
+        <v>-0.03456816077232361</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.01682915911078453</v>
+        <v>-0.01771818846464157</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.01699076965451241</v>
+        <v>-0.01049841102212667</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.02151212282478809</v>
+        <v>-0.01989423856139183</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.03176836296916008</v>
+        <v>-0.02972539886832237</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.05449745431542397</v>
+        <v>0.04663409292697906</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0.03280175477266312</v>
+        <v>-0.02682604268193245</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.005002550780773163</v>
+        <v>0.003556681098416448</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.05790213122963905</v>
+        <v>0.05916079506278038</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.0008743467624299228</v>
+        <v>-0.006277302280068398</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.01506564021110535</v>
+        <v>0.01948202401399612</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.02974876202642918</v>
+        <v>-0.02885439246892929</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.003465098328888416</v>
+        <v>0.004349302034825087</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.03122636489570141</v>
+        <v>0.03299214690923691</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.03570857271552086</v>
+        <v>0.04306864738464355</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.003994081169366837</v>
+        <v>0.001817643293179572</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.02041521295905113</v>
+        <v>0.01791976951062679</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.02368023246526718</v>
+        <v>0.02602599374949932</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.07914097607135773</v>
+        <v>-0.08704260736703873</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0.01165561191737652</v>
+        <v>-0.01162051316350698</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.004861076362431049</v>
+        <v>0.006567809265106916</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.03499804064631462</v>
+        <v>0.03028512559831142</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.001081559108570218</v>
+        <v>-0.005390998441725969</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.002380372956395149</v>
+        <v>0.001549873733893037</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.004462299402803183</v>
+        <v>0.002050576265901327</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.05305677652359009</v>
+        <v>-0.05180397257208824</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.05341895669698715</v>
+        <v>-0.05576887726783752</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.01459156535565853</v>
+        <v>0.01421444956213236</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.06733457744121552</v>
+        <v>0.06420696526765823</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.007064961362630129</v>
+        <v>0.000212607512366958</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.04213098809123039</v>
+        <v>0.03438651561737061</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.01015199720859528</v>
+        <v>-0.01169251836836338</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.06465926766395569</v>
+        <v>-0.06590838730335236</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.002621980849653482</v>
+        <v>-0.001918169087730348</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.003027819795534015</v>
+        <v>-0.002394950250163674</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.02736243046820164</v>
+        <v>-0.02760910242795944</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.0001979729859158397</v>
+        <v>-0.003010168205946684</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.09183613210916519</v>
+        <v>-0.09284529089927673</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.001026639132760465</v>
+        <v>-0.006487991195172071</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0.001572475768625736</v>
+        <v>-0.0003249810251872987</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.01776350662112236</v>
+        <v>-0.01930852048099041</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.03371892496943474</v>
+        <v>-0.03293460234999657</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.0032224056776613</v>
+        <v>-0.003089371602982283</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.04919958487153053</v>
+        <v>0.0531579814851284</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.01008900348097086</v>
+        <v>0.008184012025594711</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.002294793957844377</v>
+        <v>-0.0006070372182875872</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.06523820757865906</v>
+        <v>0.06780541688203812</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.007999529130756855</v>
+        <v>0.001302302582189441</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.002424904378131032</v>
+        <v>0.003769880626350641</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.002100224606692791</v>
+        <v>0.003391555277630687</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.004423510283231735</v>
+        <v>0.004850652068853378</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.007805418223142624</v>
+        <v>0.005479870829731226</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.004545423202216625</v>
+        <v>0.00364586734212935</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.003730408614501357</v>
+        <v>0.00700848363339901</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.002670870395377278</v>
+        <v>0.001119324704632163</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.02256834879517555</v>
+        <v>0.0209539569914341</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.001276146504096687</v>
+        <v>-0.001533578964881599</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.04479990899562836</v>
+        <v>-0.04480857774615288</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.05975381657481194</v>
+        <v>-0.05480046197772026</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.0007741925655864179</v>
+        <v>0.001465126522816718</v>
       </c>
       <c r="DD2" t="n">
-        <v>-0.04845526441931725</v>
+        <v>-0.05121569707989693</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.0005863936967216432</v>
+        <v>0.001570844440720975</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.06639183312654495</v>
+        <v>0.06414379179477692</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.001607535290531814</v>
+        <v>-0.002786062657833099</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.06307437270879745</v>
+        <v>0.06263092905282974</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.007013976573944092</v>
+        <v>-0.009856210090219975</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.06698213517665863</v>
+        <v>0.06797224283218384</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.02576399967074394</v>
+        <v>0.02585804089903831</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.05911114811897278</v>
+        <v>-0.06110303848981857</v>
       </c>
       <c r="DM2" t="n">
-        <v>-0.0409444086253643</v>
+        <v>-0.04336171969771385</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.05111858621239662</v>
+        <v>0.05204715952277184</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.04967434331774712</v>
+        <v>0.05037381872534752</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.02954442054033279</v>
+        <v>-0.03196936100721359</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.000748202670365572</v>
+        <v>0.001948431017808616</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.004162976052612066</v>
+        <v>-0.001444599591195583</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.05413641780614853</v>
+        <v>-0.05437922477722168</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.01192065421491861</v>
+        <v>0.00619228882715106</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.006486428435891867</v>
+        <v>0.004925801418721676</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.003582952078431845</v>
+        <v>0.002198477275669575</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.002242330927401781</v>
+        <v>0.0065848333761096</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.06175683811306953</v>
+        <v>-0.06092154979705811</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.03916564583778381</v>
+        <v>0.0406033881008625</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.0172338355332613</v>
+        <v>0.02183233201503754</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.0156707726418972</v>
+        <v>0.01209177076816559</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.0717674046754837</v>
+        <v>-0.07035079598426819</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.003300129435956478</v>
+        <v>0.004239236935973167</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0.0153726963326335</v>
+        <v>-0.01373580284416676</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.01142668444663286</v>
+        <v>0.01241468545049429</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.06043260544538498</v>
+        <v>-0.05676502734422684</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.06616862863302231</v>
+        <v>0.06067127361893654</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.0714033767580986</v>
+        <v>-0.0751366913318634</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0.09538928419351578</v>
+        <v>-0.09961502999067307</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.05860193446278572</v>
+        <v>-0.05744945630431175</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.0004948214045725763</v>
+        <v>0.0003527496301103383</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.009033056907355785</v>
+        <v>-0.007603601086884737</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.0333094410598278</v>
+        <v>-0.03140785545110703</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.06506398320198059</v>
+        <v>-0.06310293823480606</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.04899139702320099</v>
+        <v>0.04822699725627899</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.09674860537052155</v>
+        <v>0.0980231985449791</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.1224247962236404</v>
+        <v>0.1208247020840645</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.000646084314212203</v>
+        <v>-0.001683702343143523</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.007288912311196327</v>
+        <v>-0.009209292009472847</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.06491318345069885</v>
+        <v>-0.06473161280155182</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.01114315632730722</v>
+        <v>-0.01495156902819872</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0.01844943314790726</v>
+        <v>-0.0264908280223608</v>
       </c>
       <c r="EW2" t="n">
-        <v>-0.004053197801113129</v>
+        <v>-0.005760286934673786</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.06424208730459213</v>
+        <v>-0.06368684768676758</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.01266096252948046</v>
+        <v>0.01397034153342247</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.04403291270136833</v>
+        <v>-0.04741360247135162</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.008291793055832386</v>
+        <v>0.001189750735647976</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.004360418301075697</v>
+        <v>0.005528142675757408</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.0177752748131752</v>
+        <v>0.01779256947338581</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.00506195891648531</v>
+        <v>-0.003899303032085299</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.04253587499260902</v>
+        <v>0.04217610135674477</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0.114776074886322</v>
+        <v>-0.1108352169394493</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.05064769089221954</v>
+        <v>-0.05307703092694283</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.0007178157102316618</v>
+        <v>0.003429922973737121</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.01783710531890392</v>
+        <v>0.01608641445636749</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.009928562678396702</v>
+        <v>0.009448163211345673</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.0005166491027921438</v>
+        <v>0.008217490278184414</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.04971813037991524</v>
+        <v>0.05132666975259781</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.05048080906271935</v>
+        <v>0.04852425307035446</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.04082687944173813</v>
+        <v>0.03830233216285706</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0.003905929625034332</v>
+        <v>0.001606093253940344</v>
       </c>
       <c r="FP2" t="n">
-        <v>-0.001227710861712694</v>
+        <v>-0.006355851888656616</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.001748771639540792</v>
+        <v>0.003181079868227243</v>
       </c>
       <c r="FR2" t="n">
-        <v>-0.01159373391419649</v>
+        <v>-0.01029420550912619</v>
       </c>
       <c r="FS2" t="n">
-        <v>-0.002715395763516426</v>
+        <v>-0.002394809853285551</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.00123167724814266</v>
+        <v>0.002236676402390003</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0.06058628484606743</v>
+        <v>-0.05878268927335739</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.06379258632659912</v>
+        <v>0.06489556282758713</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.0388338640332222</v>
+        <v>0.04047385603189468</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.006497825961560011</v>
+        <v>0.005518477875739336</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.003206328721717</v>
+        <v>0.003394072176888585</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-0.001911090803332627</v>
+        <v>-0.001512609072960913</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.02752345055341721</v>
+        <v>0.02925979904830456</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.009620870463550091</v>
+        <v>0.004319147672504187</v>
       </c>
       <c r="GC2" t="n">
-        <v>-0.03220577910542488</v>
+        <v>-0.03744611516594887</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.05661624297499657</v>
+        <v>0.05089019984006882</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.00332297571003437</v>
+        <v>0.005005684681236744</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0.01400094851851463</v>
+        <v>-0.01690193824470043</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.01341425534337759</v>
+        <v>0.00670420378446579</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.003148244228214025</v>
+        <v>0.005669862031936646</v>
       </c>
       <c r="GI2" t="n">
-        <v>0.0006328539457172155</v>
+        <v>0.001908011618070304</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-0.01320480275899172</v>
+        <v>-0.005914573557674885</v>
       </c>
       <c r="GK2" t="n">
-        <v>-0.03697113320231438</v>
+        <v>-0.0384870171546936</v>
       </c>
       <c r="GL2" t="n">
-        <v>-0.0028217697981745</v>
+        <v>-0.0049807233735919</v>
       </c>
       <c r="GM2" t="n">
-        <v>-0.0718681663274765</v>
+        <v>-0.07159927487373352</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.0500430166721344</v>
+        <v>0.05520619079470634</v>
       </c>
       <c r="GO2" t="n">
-        <v>-0.03361757844686508</v>
+        <v>-0.04137501120567322</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.04553194344043732</v>
+        <v>0.04628414660692215</v>
       </c>
       <c r="GQ2" t="n">
-        <v>0.001473177690058947</v>
+        <v>-0.003936557564884424</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.008567511104047298</v>
+        <v>0.0102427052333951</v>
       </c>
       <c r="GS2" t="n">
-        <v>-0.01514636166393757</v>
+        <v>-0.007589612621814013</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.003615347668528557</v>
+        <v>0.001127437455579638</v>
       </c>
       <c r="GU2" t="n">
-        <v>-0.001619516406208277</v>
+        <v>-0.002533263526856899</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.003257774515077472</v>
+        <v>0.006383947562426329</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.1225366666913033</v>
+        <v>0.124210461974144</v>
       </c>
       <c r="GX2" t="n">
-        <v>-0.008207203820347786</v>
+        <v>-0.006265283096581697</v>
       </c>
       <c r="GY2" t="n">
-        <v>-0.007416141219437122</v>
+        <v>-0.006219129078090191</v>
       </c>
     </row>
   </sheetData>
